--- a/Saved_file/EM002/2026_09/work_logs_EM002_2026_09.xlsx
+++ b/Saved_file/EM002/2026_09/work_logs_EM002_2026_09.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-09-09 15:28:05</t>
+          <t>2026-09-24 18:27:39</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.891</t>
+          <t>Mouse anomaly detected - Score: 0.924</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260909_000</t>
+          <t>SESS_20260924_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15:28:05</t>
+          <t>18:27:39</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -528,17 +528,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-09-03 12:00:50</t>
+          <t>2026-09-27 18:27:23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.309</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260903_001</t>
+          <t>SESS_20260927_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,29 +561,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12:00:50</t>
+          <t>18:27:23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-09-17 16:35:35</t>
+          <t>2026-09-24 20:02:25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260917_002</t>
+          <t>SESS_20260924_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -611,12 +611,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:35:35</t>
+          <t>20:02:25</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -628,17 +628,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-09-27 08:42:40</t>
+          <t>2026-09-05 12:29:34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.842</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260927_003</t>
+          <t>SESS_20260905_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,34 +661,34 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08:42:40</t>
+          <t>12:29:34</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-09-06 19:13:27</t>
+          <t>2026-09-10 15:59:08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.212</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260906_004</t>
+          <t>SESS_20260910_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -711,34 +711,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19:13:27</t>
+          <t>15:59:08</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-09-15 13:45:39</t>
+          <t>2026-09-28 11:49:41</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.232</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260915_005</t>
+          <t>SESS_20260928_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -761,34 +761,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13:45:39</t>
+          <t>11:49:41</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-09-19 13:49:55</t>
+          <t>2026-09-28 14:54:40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.908</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260919_006</t>
+          <t>SESS_20260928_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13:49:55</t>
+          <t>14:54:40</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-09-17 17:01:32</t>
+          <t>2026-09-10 16:39:52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.815</t>
+          <t>Face verification failed - Similarity: 0.358</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260917_007</t>
+          <t>SESS_20260910_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>17:01:32</t>
+          <t>16:39:52</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-09-24 16:28:34</t>
+          <t>2026-09-06 14:22:55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.371</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260924_008</t>
+          <t>SESS_20260906_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -911,34 +911,34 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:28:34</t>
+          <t>14:22:55</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-09-19 15:58:25</t>
+          <t>2026-09-12 15:59:55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.231</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260919_009</t>
+          <t>SESS_20260912_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -961,34 +961,34 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15:58:25</t>
+          <t>15:59:55</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-09-04 18:44:55</t>
+          <t>2026-09-25 10:01:58</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.918</t>
+          <t>Mouse anomaly detected - Score: 0.844</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260904_010</t>
+          <t>SESS_20260925_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18:44:55</t>
+          <t>10:01:58</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1028,17 +1028,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-09-10 17:06:01</t>
+          <t>2026-09-09 12:41:23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.344</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20260910_011</t>
+          <t>SESS_20260909_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1061,34 +1061,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:06:01</t>
+          <t>12:41:23</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-09-11 08:02:50</t>
+          <t>2026-09-15 12:42:14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.463</t>
+          <t>Face verification failed - Similarity: 0.316</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20260911_012</t>
+          <t>SESS_20260915_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>08:02:50</t>
+          <t>12:42:14</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1128,17 +1128,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-09-24 10:26:23</t>
+          <t>2026-09-04 19:06:36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.307</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SESS_20260924_013</t>
+          <t>SESS_20260904_013</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1161,34 +1161,34 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10:26:23</t>
+          <t>19:06:36</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-09-18 13:48:54</t>
+          <t>2026-09-22 20:14:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.376</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SESS_20260918_014</t>
+          <t>SESS_20260922_014</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1211,34 +1211,34 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>13:48:54</t>
+          <t>20:14:03</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-09-06 16:01:40</t>
+          <t>2026-09-28 19:02:13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.944</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SESS_20260906_015</t>
+          <t>SESS_20260928_015</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1261,29 +1261,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:01:40</t>
+          <t>19:02:13</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-09-04 09:00:54</t>
+          <t>2026-09-09 14:04:04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SESS_20260904_016</t>
+          <t>SESS_20260909_016</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>09:00:54</t>
+          <t>14:04:04</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1328,17 +1328,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-09-02 08:25:25</t>
+          <t>2026-09-20 15:59:39</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>MOUSE_SESSION</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.205</t>
+          <t>Mouse anomaly detected - Score: 0.788</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SESS_20260902_017</t>
+          <t>SESS_20260920_017</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1361,34 +1361,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>08:25:25</t>
+          <t>15:59:39</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-09-04 14:58:41</t>
+          <t>2026-09-04 19:21:05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.943</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1416,29 +1416,29 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14:58:41</t>
+          <t>19:21:05</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-09-11 10:16:49</t>
+          <t>2026-09-18 19:58:51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.729</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SESS_20260911_019</t>
+          <t>SESS_20260918_019</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1461,34 +1461,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10:16:49</t>
+          <t>19:58:51</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-09-09 20:04:24</t>
+          <t>2026-09-24 08:06:43</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.754</t>
+          <t>Face verification failed - Similarity: 0.214</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SESS_20260909_020</t>
+          <t>SESS_20260924_020</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1511,34 +1511,34 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20:04:24</t>
+          <t>08:06:43</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-09-20 14:38:10</t>
+          <t>2026-09-28 08:07:52</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.426</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SESS_20260920_021</t>
+          <t>SESS_20260928_021</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1561,34 +1561,34 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-09-20</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14:38:10</t>
+          <t>08:07:52</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-09-22 17:08:06</t>
+          <t>2026-09-12 10:47:01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.434</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SESS_20260922_022</t>
+          <t>SESS_20260912_022</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1611,34 +1611,34 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>17:08:06</t>
+          <t>10:47:01</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-09-22 19:49:05</t>
+          <t>2026-09-05 15:06:10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.481</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SESS_20260922_023</t>
+          <t>SESS_20260905_023</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1661,34 +1661,34 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>19:49:05</t>
+          <t>15:06:10</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-09-13 13:07:29</t>
+          <t>2026-09-25 18:50:29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.718</t>
+          <t>Face verification failed - Similarity: 0.241</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SESS_20260913_024</t>
+          <t>SESS_20260925_024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1711,34 +1711,34 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13:07:29</t>
+          <t>18:50:29</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-09-04 20:08:17</t>
+          <t>2026-09-21 14:48:53</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.876</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SESS_20260904_025</t>
+          <t>SESS_20260921_025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1761,34 +1761,34 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20:08:17</t>
+          <t>14:48:53</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-09-23 15:01:15</t>
+          <t>2026-09-03 11:40:47</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.768</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SESS_20260923_026</t>
+          <t>SESS_20260903_026</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1811,34 +1811,34 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15:01:15</t>
+          <t>11:40:47</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-09-26 08:47:50</t>
+          <t>2026-09-02 17:23:57</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.416</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SESS_20260926_027</t>
+          <t>SESS_20260902_027</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1861,34 +1861,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>08:47:50</t>
+          <t>17:23:57</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-09-13 18:32:39</t>
+          <t>2026-09-08 12:27:33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.209</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SESS_20260913_028</t>
+          <t>SESS_20260908_028</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1911,34 +1911,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>18:32:39</t>
+          <t>12:27:33</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-09-17 09:31:53</t>
+          <t>2026-09-08 20:35:34</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.369</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SESS_20260917_029</t>
+          <t>SESS_20260908_029</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1961,34 +1961,34 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>09:31:53</t>
+          <t>20:35:34</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-09-10 17:19:07</t>
+          <t>2026-09-09 18:36:56</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.206</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SESS_20260910_030</t>
+          <t>SESS_20260909_030</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2011,34 +2011,34 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>17:19:07</t>
+          <t>18:36:56</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-09-14 11:54:13</t>
+          <t>2026-09-13 20:21:07</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.931</t>
+          <t>Face verification failed - Similarity: 0.294</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2048,12 +2048,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SESS_20260914_031</t>
+          <t>SESS_20260913_031</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -2061,34 +2061,34 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11:54:13</t>
+          <t>20:21:07</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-09-12 15:18:23</t>
+          <t>2026-09-16 13:04:14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.745</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SESS_20260912_032</t>
+          <t>SESS_20260916_032</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -2111,15 +2111,65 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>15:18:23</t>
+          <t>13:04:14</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-09-07 13:46:47</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.715</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SESS_20260907_033</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-09-07</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>13:46:47</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>Mouse</t>
         </is>
@@ -2279,7 +2329,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-09-01 12:22:11</t>
+          <t>2026-09-01 14:30:48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2289,7 +2339,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.512</t>
+          <t>Mouse session - Score: 0.569</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2317,7 +2367,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12:22:11</t>
+          <t>14:30:48</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2326,58 +2376,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>22747</v>
+        <v>12455</v>
       </c>
       <c r="L2" t="n">
-        <v>22747</v>
+        <v>12455</v>
       </c>
       <c r="M2" t="n">
-        <v>11366.02</v>
+        <v>7083.55</v>
       </c>
       <c r="N2" t="n">
-        <v>6819.61</v>
+        <v>4250.13</v>
       </c>
       <c r="O2" t="n">
-        <v>4546.41</v>
+        <v>2833.42</v>
       </c>
       <c r="P2" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>131.09</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>86.7</v>
+        <v>101.82</v>
       </c>
       <c r="T2" t="n">
-        <v>26.67</v>
+        <v>6.89</v>
       </c>
       <c r="U2" t="n">
-        <v>52.02</v>
+        <v>61.09</v>
       </c>
       <c r="V2" t="n">
-        <v>34.68</v>
+        <v>40.73</v>
       </c>
       <c r="W2" t="n">
-        <v>2.33</v>
+        <v>8.65</v>
       </c>
       <c r="X2" t="n">
-        <v>5.74</v>
+        <v>19.12</v>
       </c>
       <c r="Y2" t="n">
-        <v>131.09</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.512</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-09-01 15:53:54</t>
+          <t>2026-09-01 16:36:06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2387,7 +2437,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.455</t>
+          <t>Mouse session - Score: 0.487</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2415,7 +2465,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15:53:54</t>
+          <t>16:36:06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2424,58 +2474,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>6091</v>
+        <v>15785</v>
       </c>
       <c r="L3" t="n">
-        <v>6091</v>
+        <v>15785</v>
       </c>
       <c r="M3" t="n">
-        <v>26213.33</v>
+        <v>10637.22</v>
       </c>
       <c r="N3" t="n">
-        <v>15728</v>
+        <v>6382.33</v>
       </c>
       <c r="O3" t="n">
-        <v>10485.33</v>
+        <v>4254.89</v>
       </c>
       <c r="P3" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>80.09999999999999</v>
+        <v>107.9</v>
       </c>
       <c r="S3" t="n">
-        <v>327.26</v>
+        <v>98.58</v>
       </c>
       <c r="T3" t="n">
-        <v>35.33</v>
+        <v>38.06</v>
       </c>
       <c r="U3" t="n">
-        <v>196.35</v>
+        <v>59.15</v>
       </c>
       <c r="V3" t="n">
-        <v>130.9</v>
+        <v>39.43</v>
       </c>
       <c r="W3" t="n">
-        <v>29.57</v>
+        <v>2.76</v>
       </c>
       <c r="X3" t="n">
-        <v>12.74</v>
+        <v>27.28</v>
       </c>
       <c r="Y3" t="n">
-        <v>80.09999999999999</v>
+        <v>107.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.455</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-09-01 11:01:51</t>
+          <t>2026-09-01 14:52:50</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2485,7 +2535,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.643</t>
+          <t>Mouse session - Score: 0.580</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2513,7 +2563,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11:01:51</t>
+          <t>14:52:50</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2522,58 +2572,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>8173</v>
+        <v>7674</v>
       </c>
       <c r="L4" t="n">
-        <v>8173</v>
+        <v>7674</v>
       </c>
       <c r="M4" t="n">
-        <v>26315.17</v>
+        <v>36246.08</v>
       </c>
       <c r="N4" t="n">
-        <v>15789.1</v>
+        <v>21747.65</v>
       </c>
       <c r="O4" t="n">
-        <v>10526.07</v>
+        <v>14498.43</v>
       </c>
       <c r="P4" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>92.58</v>
+        <v>66.31</v>
       </c>
       <c r="S4" t="n">
-        <v>284.23</v>
+        <v>546.62</v>
       </c>
       <c r="T4" t="n">
-        <v>18.76</v>
+        <v>38.29</v>
       </c>
       <c r="U4" t="n">
-        <v>170.54</v>
+        <v>327.97</v>
       </c>
       <c r="V4" t="n">
-        <v>113.69</v>
+        <v>218.65</v>
       </c>
       <c r="W4" t="n">
-        <v>19.81</v>
+        <v>3.87</v>
       </c>
       <c r="X4" t="n">
-        <v>26.85</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.58</v>
+        <v>66.31</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.643</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-09-01 10:20:14</t>
+          <t>2026-09-01 11:48:05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2583,7 +2633,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.822</t>
+          <t>Mouse session - Score: 0.488</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2598,11 +2648,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2611,7 +2661,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10:20:14</t>
+          <t>11:48:05</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2620,58 +2670,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>11571</v>
+        <v>23297</v>
       </c>
       <c r="L5" t="n">
-        <v>11571</v>
+        <v>23297</v>
       </c>
       <c r="M5" t="n">
-        <v>13954.61</v>
+        <v>9145.870000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>8372.77</v>
+        <v>5487.52</v>
       </c>
       <c r="O5" t="n">
-        <v>5581.84</v>
+        <v>3658.35</v>
       </c>
       <c r="P5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>66.23</v>
+        <v>100</v>
       </c>
       <c r="S5" t="n">
-        <v>210.71</v>
+        <v>91.45</v>
       </c>
       <c r="T5" t="n">
-        <v>17.03</v>
+        <v>12.06</v>
       </c>
       <c r="U5" t="n">
-        <v>126.43</v>
+        <v>54.87</v>
       </c>
       <c r="V5" t="n">
-        <v>84.29000000000001</v>
+        <v>36.58</v>
       </c>
       <c r="W5" t="n">
-        <v>21.36</v>
+        <v>3.79</v>
       </c>
       <c r="X5" t="n">
-        <v>16.6</v>
+        <v>25.66</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.23</v>
+        <v>100</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.822</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-09-02 09:40:19</t>
+          <t>2026-09-02 16:39:40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2681,7 +2731,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.606</t>
+          <t>Mouse session - Score: 0.514</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2709,7 +2759,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>09:40:19</t>
+          <t>16:39:40</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2718,58 +2768,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>19208</v>
+        <v>7224</v>
       </c>
       <c r="L6" t="n">
-        <v>19208</v>
+        <v>7224</v>
       </c>
       <c r="M6" t="n">
-        <v>18902.72</v>
+        <v>7623.91</v>
       </c>
       <c r="N6" t="n">
-        <v>11341.63</v>
+        <v>4574.35</v>
       </c>
       <c r="O6" t="n">
-        <v>7561.09</v>
+        <v>3049.56</v>
       </c>
       <c r="P6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="R6" t="n">
-        <v>134.48</v>
+        <v>129.08</v>
       </c>
       <c r="S6" t="n">
-        <v>140.56</v>
+        <v>59.07</v>
       </c>
       <c r="T6" t="n">
-        <v>6.69</v>
+        <v>33.31</v>
       </c>
       <c r="U6" t="n">
-        <v>84.34</v>
+        <v>35.44</v>
       </c>
       <c r="V6" t="n">
-        <v>56.22</v>
+        <v>23.63</v>
       </c>
       <c r="W6" t="n">
-        <v>18.43</v>
+        <v>11.96</v>
       </c>
       <c r="X6" t="n">
-        <v>11.78</v>
+        <v>6.24</v>
       </c>
       <c r="Y6" t="n">
-        <v>134.48</v>
+        <v>129.08</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.606</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-09-02 17:04:47</t>
+          <t>2026-09-02 14:49:20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2779,7 +2829,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.536</t>
+          <t>Mouse session - Score: 0.507</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2807,7 +2857,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>17:04:47</t>
+          <t>14:49:20</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2816,58 +2866,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>22520</v>
+        <v>25058</v>
       </c>
       <c r="L7" t="n">
-        <v>22520</v>
+        <v>25058</v>
       </c>
       <c r="M7" t="n">
-        <v>6255.95</v>
+        <v>19888.02</v>
       </c>
       <c r="N7" t="n">
-        <v>3753.57</v>
+        <v>11932.81</v>
       </c>
       <c r="O7" t="n">
-        <v>2502.38</v>
+        <v>7955.21</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="R7" t="n">
-        <v>170.67</v>
+        <v>78.48</v>
       </c>
       <c r="S7" t="n">
-        <v>36.65</v>
+        <v>253.43</v>
       </c>
       <c r="T7" t="n">
-        <v>47.93</v>
+        <v>10.38</v>
       </c>
       <c r="U7" t="n">
-        <v>21.99</v>
+        <v>152.06</v>
       </c>
       <c r="V7" t="n">
-        <v>14.66</v>
+        <v>101.37</v>
       </c>
       <c r="W7" t="n">
-        <v>14.33</v>
+        <v>22.66</v>
       </c>
       <c r="X7" t="n">
-        <v>25.63</v>
+        <v>22.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>170.67</v>
+        <v>78.48</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.536</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-09-02 13:53:43</t>
+          <t>2026-09-02 13:09:58</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2877,7 +2927,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.505</t>
+          <t>Mouse session - Score: 0.873</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2892,11 +2942,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2905,7 +2955,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>13:53:43</t>
+          <t>13:09:58</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2914,58 +2964,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>21263</v>
+        <v>19093</v>
       </c>
       <c r="L8" t="n">
-        <v>21263</v>
+        <v>19093</v>
       </c>
       <c r="M8" t="n">
-        <v>33564.63</v>
+        <v>34197.6</v>
       </c>
       <c r="N8" t="n">
-        <v>20138.78</v>
+        <v>20518.56</v>
       </c>
       <c r="O8" t="n">
-        <v>13425.85</v>
+        <v>13679.04</v>
       </c>
       <c r="P8" t="n">
         <v>15</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="R8" t="n">
-        <v>178.74</v>
+        <v>135.99</v>
       </c>
       <c r="S8" t="n">
-        <v>187.79</v>
+        <v>251.48</v>
       </c>
       <c r="T8" t="n">
-        <v>48.23</v>
+        <v>7.88</v>
       </c>
       <c r="U8" t="n">
-        <v>112.67</v>
+        <v>150.89</v>
       </c>
       <c r="V8" t="n">
-        <v>75.12</v>
+        <v>100.59</v>
       </c>
       <c r="W8" t="n">
-        <v>18.75</v>
+        <v>14.06</v>
       </c>
       <c r="X8" t="n">
-        <v>12.91</v>
+        <v>10.53</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.74</v>
+        <v>135.99</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.505</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-09-02 12:13:54</t>
+          <t>2026-09-02 09:48:17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2975,7 +3025,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.535</t>
+          <t>Mouse session - Score: 0.640</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3003,7 +3053,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12:13:54</t>
+          <t>09:48:17</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3012,58 +3062,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>22770</v>
+        <v>8488</v>
       </c>
       <c r="L9" t="n">
-        <v>22770</v>
+        <v>8488</v>
       </c>
       <c r="M9" t="n">
-        <v>21180.7</v>
+        <v>37984.74</v>
       </c>
       <c r="N9" t="n">
-        <v>12708.42</v>
+        <v>22790.84</v>
       </c>
       <c r="O9" t="n">
-        <v>8472.280000000001</v>
+        <v>15193.89</v>
       </c>
       <c r="P9" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q9" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>140.48</v>
+        <v>166.56</v>
       </c>
       <c r="S9" t="n">
-        <v>150.77</v>
+        <v>228.06</v>
       </c>
       <c r="T9" t="n">
-        <v>21.09</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>90.45999999999999</v>
+        <v>136.84</v>
       </c>
       <c r="V9" t="n">
-        <v>60.31</v>
+        <v>91.22</v>
       </c>
       <c r="W9" t="n">
-        <v>25.9</v>
+        <v>29.23</v>
       </c>
       <c r="X9" t="n">
-        <v>14.63</v>
+        <v>9.31</v>
       </c>
       <c r="Y9" t="n">
-        <v>140.48</v>
+        <v>166.56</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.535</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-09-03 15:28:14</t>
+          <t>2026-09-03 17:34:05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3073,7 +3123,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.467</t>
+          <t>Mouse session - Score: 0.511</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3101,7 +3151,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15:28:14</t>
+          <t>17:34:05</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3110,58 +3160,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>26208</v>
+        <v>22120</v>
       </c>
       <c r="L10" t="n">
-        <v>26208</v>
+        <v>22120</v>
       </c>
       <c r="M10" t="n">
-        <v>17945.96</v>
+        <v>39186.57</v>
       </c>
       <c r="N10" t="n">
-        <v>10767.58</v>
+        <v>23511.94</v>
       </c>
       <c r="O10" t="n">
-        <v>7178.38</v>
+        <v>15674.63</v>
       </c>
       <c r="P10" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R10" t="n">
-        <v>148.56</v>
+        <v>161.17</v>
       </c>
       <c r="S10" t="n">
-        <v>120.8</v>
+        <v>243.13</v>
       </c>
       <c r="T10" t="n">
-        <v>42.8</v>
+        <v>49.13</v>
       </c>
       <c r="U10" t="n">
-        <v>72.48</v>
+        <v>145.88</v>
       </c>
       <c r="V10" t="n">
-        <v>48.32</v>
+        <v>97.25</v>
       </c>
       <c r="W10" t="n">
-        <v>29.62</v>
+        <v>23.47</v>
       </c>
       <c r="X10" t="n">
-        <v>6.55</v>
+        <v>10.74</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.56</v>
+        <v>161.17</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.467</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-09-03 12:22:17</t>
+          <t>2026-09-03 09:47:53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3171,7 +3221,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.560</t>
+          <t>Mouse session - Score: 0.565</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3199,7 +3249,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12:22:17</t>
+          <t>09:47:53</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3208,58 +3258,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>22059</v>
+        <v>17674</v>
       </c>
       <c r="L11" t="n">
-        <v>22059</v>
+        <v>17674</v>
       </c>
       <c r="M11" t="n">
-        <v>28803.93</v>
+        <v>20978.48</v>
       </c>
       <c r="N11" t="n">
-        <v>17282.36</v>
+        <v>12587.09</v>
       </c>
       <c r="O11" t="n">
-        <v>11521.57</v>
+        <v>8391.389999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R11" t="n">
-        <v>145.25</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>198.31</v>
+        <v>235.98</v>
       </c>
       <c r="T11" t="n">
-        <v>31.64</v>
+        <v>41.31</v>
       </c>
       <c r="U11" t="n">
-        <v>118.99</v>
+        <v>141.59</v>
       </c>
       <c r="V11" t="n">
-        <v>79.31999999999999</v>
+        <v>94.39</v>
       </c>
       <c r="W11" t="n">
-        <v>2.55</v>
+        <v>11.52</v>
       </c>
       <c r="X11" t="n">
-        <v>21.7</v>
+        <v>11.21</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.25</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-09-03 10:55:48</t>
+          <t>2026-09-03 15:35:35</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3269,7 +3319,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.590</t>
+          <t>Mouse session - Score: 0.605</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3297,7 +3347,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10:55:48</t>
+          <t>15:35:35</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3306,58 +3356,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>20050</v>
+        <v>7493</v>
       </c>
       <c r="L12" t="n">
-        <v>20050</v>
+        <v>7493</v>
       </c>
       <c r="M12" t="n">
-        <v>12132.39</v>
+        <v>36748.56</v>
       </c>
       <c r="N12" t="n">
-        <v>7279.43</v>
+        <v>22049.14</v>
       </c>
       <c r="O12" t="n">
-        <v>4852.95</v>
+        <v>14699.43</v>
       </c>
       <c r="P12" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R12" t="n">
-        <v>43.9</v>
+        <v>146.52</v>
       </c>
       <c r="S12" t="n">
-        <v>276.34</v>
+        <v>250.81</v>
       </c>
       <c r="T12" t="n">
-        <v>28.06</v>
+        <v>9.65</v>
       </c>
       <c r="U12" t="n">
-        <v>165.8</v>
+        <v>150.48</v>
       </c>
       <c r="V12" t="n">
-        <v>110.53</v>
+        <v>100.32</v>
       </c>
       <c r="W12" t="n">
-        <v>5.31</v>
+        <v>11.47</v>
       </c>
       <c r="X12" t="n">
-        <v>9.460000000000001</v>
+        <v>3.83</v>
       </c>
       <c r="Y12" t="n">
-        <v>43.9</v>
+        <v>146.52</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-09-03 17:08:50</t>
+          <t>2026-09-03 14:01:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3367,7 +3417,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.587</t>
+          <t>Mouse session - Score: 0.623</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3395,7 +3445,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:08:50</t>
+          <t>14:01:06</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3404,58 +3454,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>10171</v>
+        <v>10474</v>
       </c>
       <c r="L13" t="n">
-        <v>10171</v>
+        <v>10474</v>
       </c>
       <c r="M13" t="n">
-        <v>23448.52</v>
+        <v>32038.15</v>
       </c>
       <c r="N13" t="n">
-        <v>14069.11</v>
+        <v>19222.89</v>
       </c>
       <c r="O13" t="n">
-        <v>9379.41</v>
+        <v>12815.26</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>52.07</v>
+        <v>44.6</v>
       </c>
       <c r="S13" t="n">
-        <v>450.36</v>
+        <v>718.33</v>
       </c>
       <c r="T13" t="n">
-        <v>38.12</v>
+        <v>29.46</v>
       </c>
       <c r="U13" t="n">
-        <v>270.22</v>
+        <v>431</v>
       </c>
       <c r="V13" t="n">
-        <v>180.14</v>
+        <v>287.33</v>
       </c>
       <c r="W13" t="n">
-        <v>3.1</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>20.8</v>
+        <v>6.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.07</v>
+        <v>44.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.587</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-09-04 16:45:23</t>
+          <t>2026-09-04 16:31:59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3465,7 +3515,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.640</t>
+          <t>Mouse session - Score: 0.465</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3493,7 +3543,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>16:45:23</t>
+          <t>16:31:59</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3502,58 +3552,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>21593</v>
+        <v>9613</v>
       </c>
       <c r="L14" t="n">
-        <v>21593</v>
+        <v>9613</v>
       </c>
       <c r="M14" t="n">
-        <v>18285.3</v>
+        <v>32984.03</v>
       </c>
       <c r="N14" t="n">
-        <v>10971.18</v>
+        <v>19790.42</v>
       </c>
       <c r="O14" t="n">
-        <v>7314.12</v>
+        <v>13193.61</v>
       </c>
       <c r="P14" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="Q14" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="R14" t="n">
-        <v>70.54000000000001</v>
+        <v>56.39</v>
       </c>
       <c r="S14" t="n">
-        <v>259.21</v>
+        <v>584.92</v>
       </c>
       <c r="T14" t="n">
-        <v>47</v>
+        <v>25.84</v>
       </c>
       <c r="U14" t="n">
-        <v>155.52</v>
+        <v>350.95</v>
       </c>
       <c r="V14" t="n">
-        <v>103.68</v>
+        <v>233.97</v>
       </c>
       <c r="W14" t="n">
-        <v>20.51</v>
+        <v>27.3</v>
       </c>
       <c r="X14" t="n">
-        <v>16.95</v>
+        <v>29.71</v>
       </c>
       <c r="Y14" t="n">
-        <v>70.54000000000001</v>
+        <v>56.39</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.64</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-09-04 15:43:31</t>
+          <t>2026-09-04 13:46:43</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3563,7 +3613,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.479</t>
+          <t>Mouse session - Score: 0.505</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3591,7 +3641,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15:43:31</t>
+          <t>13:46:43</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3600,58 +3650,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>16317</v>
+        <v>25494</v>
       </c>
       <c r="L15" t="n">
-        <v>16317</v>
+        <v>25494</v>
       </c>
       <c r="M15" t="n">
-        <v>30284.93</v>
+        <v>39799.33</v>
       </c>
       <c r="N15" t="n">
-        <v>18170.96</v>
+        <v>23879.6</v>
       </c>
       <c r="O15" t="n">
-        <v>12113.97</v>
+        <v>15919.73</v>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>135.25</v>
+        <v>135.57</v>
       </c>
       <c r="S15" t="n">
-        <v>223.91</v>
+        <v>293.57</v>
       </c>
       <c r="T15" t="n">
-        <v>17.21</v>
+        <v>7.21</v>
       </c>
       <c r="U15" t="n">
-        <v>134.35</v>
+        <v>176.14</v>
       </c>
       <c r="V15" t="n">
-        <v>89.56</v>
+        <v>117.43</v>
       </c>
       <c r="W15" t="n">
-        <v>22.24</v>
+        <v>29.07</v>
       </c>
       <c r="X15" t="n">
-        <v>8.539999999999999</v>
+        <v>17.49</v>
       </c>
       <c r="Y15" t="n">
-        <v>135.25</v>
+        <v>135.57</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.479</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-09-04 10:55:44</t>
+          <t>2026-09-04 10:36:59</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3661,7 +3711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.525</t>
+          <t>Mouse session - Score: 0.603</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3689,7 +3739,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10:55:44</t>
+          <t>10:36:59</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3698,58 +3748,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>13568</v>
+        <v>5171</v>
       </c>
       <c r="L16" t="n">
-        <v>13568</v>
+        <v>5171</v>
       </c>
       <c r="M16" t="n">
-        <v>7045.52</v>
+        <v>32409.52</v>
       </c>
       <c r="N16" t="n">
-        <v>4227.31</v>
+        <v>19445.71</v>
       </c>
       <c r="O16" t="n">
-        <v>2818.21</v>
+        <v>12963.81</v>
       </c>
       <c r="P16" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q16" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="R16" t="n">
-        <v>164.46</v>
+        <v>75.48</v>
       </c>
       <c r="S16" t="n">
-        <v>42.84</v>
+        <v>429.4</v>
       </c>
       <c r="T16" t="n">
-        <v>28.34</v>
+        <v>44.98</v>
       </c>
       <c r="U16" t="n">
-        <v>25.7</v>
+        <v>257.64</v>
       </c>
       <c r="V16" t="n">
-        <v>17.14</v>
+        <v>171.76</v>
       </c>
       <c r="W16" t="n">
-        <v>3.11</v>
+        <v>21.96</v>
       </c>
       <c r="X16" t="n">
-        <v>6</v>
+        <v>12.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>164.46</v>
+        <v>75.48</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.525</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-09-04 16:06:07</t>
+          <t>2026-09-04 12:17:02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3787,7 +3837,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:06:07</t>
+          <t>12:17:02</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3796,49 +3846,49 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>26156</v>
+        <v>14289</v>
       </c>
       <c r="L17" t="n">
-        <v>26156</v>
+        <v>14289</v>
       </c>
       <c r="M17" t="n">
-        <v>26352.3</v>
+        <v>35090.63</v>
       </c>
       <c r="N17" t="n">
-        <v>15811.38</v>
+        <v>21054.38</v>
       </c>
       <c r="O17" t="n">
-        <v>10540.92</v>
+        <v>14036.25</v>
       </c>
       <c r="P17" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.70999999999999</v>
+        <v>154.09</v>
       </c>
       <c r="S17" t="n">
-        <v>293.73</v>
+        <v>227.73</v>
       </c>
       <c r="T17" t="n">
-        <v>24.92</v>
+        <v>46.23</v>
       </c>
       <c r="U17" t="n">
-        <v>176.24</v>
+        <v>136.64</v>
       </c>
       <c r="V17" t="n">
-        <v>117.49</v>
+        <v>91.09</v>
       </c>
       <c r="W17" t="n">
-        <v>3.89</v>
+        <v>4.15</v>
       </c>
       <c r="X17" t="n">
-        <v>23.89</v>
+        <v>10.79</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.70999999999999</v>
+        <v>154.09</v>
       </c>
       <c r="Z17" t="n">
         <v>0.552</v>
@@ -3847,7 +3897,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-09-07 13:51:55</t>
+          <t>2026-09-06 09:08:31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3857,7 +3907,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.494</t>
+          <t>Mouse session - Score: 0.613</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3867,7 +3917,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20260907_000</t>
+          <t>MOUSE_20260906_000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3880,12 +3930,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>13:51:55</t>
+          <t>09:08:31</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3894,58 +3944,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>17804</v>
+        <v>16960</v>
       </c>
       <c r="L18" t="n">
-        <v>17804</v>
+        <v>16960</v>
       </c>
       <c r="M18" t="n">
-        <v>18507.52</v>
+        <v>33455.15</v>
       </c>
       <c r="N18" t="n">
-        <v>11104.51</v>
+        <v>20073.09</v>
       </c>
       <c r="O18" t="n">
-        <v>7403.01</v>
+        <v>13382.06</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>144.09</v>
+        <v>166.15</v>
       </c>
       <c r="S18" t="n">
-        <v>128.44</v>
+        <v>201.36</v>
       </c>
       <c r="T18" t="n">
-        <v>33.05</v>
+        <v>39.32</v>
       </c>
       <c r="U18" t="n">
-        <v>77.06999999999999</v>
+        <v>120.82</v>
       </c>
       <c r="V18" t="n">
-        <v>51.38</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="W18" t="n">
-        <v>17.39</v>
+        <v>13.83</v>
       </c>
       <c r="X18" t="n">
-        <v>10.04</v>
+        <v>21.98</v>
       </c>
       <c r="Y18" t="n">
-        <v>144.09</v>
+        <v>166.15</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.494</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-09-07 12:22:24</t>
+          <t>2026-09-06 17:35:48</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3955,7 +4005,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.491</t>
+          <t>Mouse session - Score: 0.851</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3965,25 +4015,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20260907_001</t>
+          <t>MOUSE_20260906_001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12:22:24</t>
+          <t>17:35:48</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3992,58 +4042,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>16559</v>
+        <v>12816</v>
       </c>
       <c r="L19" t="n">
-        <v>16559</v>
+        <v>12816</v>
       </c>
       <c r="M19" t="n">
-        <v>13884.1</v>
+        <v>24186.99</v>
       </c>
       <c r="N19" t="n">
-        <v>8330.459999999999</v>
+        <v>14512.2</v>
       </c>
       <c r="O19" t="n">
-        <v>5553.64</v>
+        <v>9674.799999999999</v>
       </c>
       <c r="P19" t="n">
         <v>38</v>
       </c>
       <c r="Q19" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="R19" t="n">
-        <v>97.15000000000001</v>
+        <v>99.89</v>
       </c>
       <c r="S19" t="n">
-        <v>142.91</v>
+        <v>242.13</v>
       </c>
       <c r="T19" t="n">
-        <v>38.39</v>
+        <v>40.06</v>
       </c>
       <c r="U19" t="n">
-        <v>85.75</v>
+        <v>145.28</v>
       </c>
       <c r="V19" t="n">
-        <v>57.17</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="W19" t="n">
-        <v>20.64</v>
+        <v>19.25</v>
       </c>
       <c r="X19" t="n">
-        <v>17.38</v>
+        <v>12.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.15000000000001</v>
+        <v>99.89</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.491</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-09-07 16:43:45</t>
+          <t>2026-09-06 15:10:09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4053,7 +4103,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.608</t>
+          <t>Mouse session - Score: 0.643</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4063,7 +4113,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260907_002</t>
+          <t>MOUSE_20260906_002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4076,12 +4126,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16:43:45</t>
+          <t>15:10:09</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4090,58 +4140,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>14070</v>
+        <v>11366</v>
       </c>
       <c r="L20" t="n">
-        <v>14070</v>
+        <v>11366</v>
       </c>
       <c r="M20" t="n">
-        <v>38959.24</v>
+        <v>14208.6</v>
       </c>
       <c r="N20" t="n">
-        <v>23375.55</v>
+        <v>8525.16</v>
       </c>
       <c r="O20" t="n">
-        <v>15583.7</v>
+        <v>5683.44</v>
       </c>
       <c r="P20" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R20" t="n">
-        <v>128.67</v>
+        <v>102.01</v>
       </c>
       <c r="S20" t="n">
-        <v>302.79</v>
+        <v>139.29</v>
       </c>
       <c r="T20" t="n">
-        <v>36.56</v>
+        <v>12.56</v>
       </c>
       <c r="U20" t="n">
-        <v>181.67</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="V20" t="n">
-        <v>121.12</v>
+        <v>55.71</v>
       </c>
       <c r="W20" t="n">
-        <v>29.7</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>26.84</v>
+        <v>26.54</v>
       </c>
       <c r="Y20" t="n">
-        <v>128.67</v>
+        <v>102.01</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.608</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-09-07 10:04:15</t>
+          <t>2026-09-06 16:58:20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4151,7 +4201,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.607</t>
+          <t>Mouse session - Score: 0.509</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4161,7 +4211,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260907_003</t>
+          <t>MOUSE_20260906_003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4174,12 +4224,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>10:04:15</t>
+          <t>16:58:20</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4188,58 +4238,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>25642</v>
+        <v>15523</v>
       </c>
       <c r="L21" t="n">
-        <v>25642</v>
+        <v>15523</v>
       </c>
       <c r="M21" t="n">
-        <v>15154.49</v>
+        <v>27146.7</v>
       </c>
       <c r="N21" t="n">
-        <v>9092.700000000001</v>
+        <v>16288.02</v>
       </c>
       <c r="O21" t="n">
-        <v>6061.8</v>
+        <v>10858.68</v>
       </c>
       <c r="P21" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="Q21" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="R21" t="n">
-        <v>148.36</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="S21" t="n">
-        <v>102.15</v>
+        <v>300.29</v>
       </c>
       <c r="T21" t="n">
-        <v>21.49</v>
+        <v>5.09</v>
       </c>
       <c r="U21" t="n">
-        <v>61.29</v>
+        <v>180.17</v>
       </c>
       <c r="V21" t="n">
-        <v>40.86</v>
+        <v>120.12</v>
       </c>
       <c r="W21" t="n">
-        <v>16.9</v>
+        <v>28.73</v>
       </c>
       <c r="X21" t="n">
-        <v>5.12</v>
+        <v>21.18</v>
       </c>
       <c r="Y21" t="n">
-        <v>148.36</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.607</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-09-08 10:44:39</t>
+          <t>2026-09-07 10:39:44</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4249,7 +4299,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.476</t>
+          <t>Mouse session - Score: 0.496</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4259,7 +4309,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260908_000</t>
+          <t>MOUSE_20260907_000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4272,12 +4322,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10:44:39</t>
+          <t>10:39:44</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4286,58 +4336,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>25776</v>
+        <v>10796</v>
       </c>
       <c r="L22" t="n">
-        <v>25776</v>
+        <v>10796</v>
       </c>
       <c r="M22" t="n">
-        <v>14605.14</v>
+        <v>32214.95</v>
       </c>
       <c r="N22" t="n">
-        <v>8763.09</v>
+        <v>19328.97</v>
       </c>
       <c r="O22" t="n">
-        <v>5842.06</v>
+        <v>12885.98</v>
       </c>
       <c r="P22" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R22" t="n">
-        <v>68.41</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>213.5</v>
+        <v>355.56</v>
       </c>
       <c r="T22" t="n">
-        <v>14.28</v>
+        <v>22.39</v>
       </c>
       <c r="U22" t="n">
-        <v>128.1</v>
+        <v>213.33</v>
       </c>
       <c r="V22" t="n">
-        <v>85.40000000000001</v>
+        <v>142.22</v>
       </c>
       <c r="W22" t="n">
-        <v>28.37</v>
+        <v>5.59</v>
       </c>
       <c r="X22" t="n">
-        <v>21.1</v>
+        <v>23.41</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.41</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.476</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-09-08 15:55:50</t>
+          <t>2026-09-07 10:46:04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4347,7 +4397,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.511</t>
+          <t>Mouse session - Score: 0.592</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4357,7 +4407,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20260908_001</t>
+          <t>MOUSE_20260907_001</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4370,12 +4420,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15:55:50</t>
+          <t>10:46:04</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4384,58 +4434,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>7571</v>
+        <v>12279</v>
       </c>
       <c r="L23" t="n">
-        <v>7571</v>
+        <v>12279</v>
       </c>
       <c r="M23" t="n">
-        <v>16576.69</v>
+        <v>7504.57</v>
       </c>
       <c r="N23" t="n">
-        <v>9946.02</v>
+        <v>4502.74</v>
       </c>
       <c r="O23" t="n">
-        <v>6630.68</v>
+        <v>3001.83</v>
       </c>
       <c r="P23" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="R23" t="n">
-        <v>80.36</v>
+        <v>44.46</v>
       </c>
       <c r="S23" t="n">
-        <v>206.28</v>
+        <v>168.79</v>
       </c>
       <c r="T23" t="n">
-        <v>18.84</v>
+        <v>35.2</v>
       </c>
       <c r="U23" t="n">
-        <v>123.77</v>
+        <v>101.27</v>
       </c>
       <c r="V23" t="n">
-        <v>82.51000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="W23" t="n">
-        <v>12.15</v>
+        <v>24.13</v>
       </c>
       <c r="X23" t="n">
-        <v>17.85</v>
+        <v>6.79</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.36</v>
+        <v>44.46</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.511</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-09-08 09:48:27</t>
+          <t>2026-09-07 14:49:20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4445,7 +4495,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.563</t>
+          <t>Mouse session - Score: 0.532</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4455,7 +4505,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20260908_002</t>
+          <t>MOUSE_20260907_002</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4468,12 +4518,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:48:27</t>
+          <t>14:49:20</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4482,58 +4532,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>21063</v>
+        <v>21504</v>
       </c>
       <c r="L24" t="n">
-        <v>21063</v>
+        <v>21504</v>
       </c>
       <c r="M24" t="n">
-        <v>39227.64</v>
+        <v>32634.93</v>
       </c>
       <c r="N24" t="n">
-        <v>23536.58</v>
+        <v>19580.96</v>
       </c>
       <c r="O24" t="n">
-        <v>15691.06</v>
+        <v>13053.97</v>
       </c>
       <c r="P24" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q24" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>97.43000000000001</v>
+        <v>128.69</v>
       </c>
       <c r="S24" t="n">
-        <v>402.61</v>
+        <v>253.59</v>
       </c>
       <c r="T24" t="n">
-        <v>28.76</v>
+        <v>10.37</v>
       </c>
       <c r="U24" t="n">
-        <v>241.57</v>
+        <v>152.15</v>
       </c>
       <c r="V24" t="n">
-        <v>161.04</v>
+        <v>101.44</v>
       </c>
       <c r="W24" t="n">
-        <v>17.94</v>
+        <v>29.65</v>
       </c>
       <c r="X24" t="n">
-        <v>7.14</v>
+        <v>13.81</v>
       </c>
       <c r="Y24" t="n">
-        <v>97.43000000000001</v>
+        <v>128.69</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-09-08 09:33:35</t>
+          <t>2026-09-07 15:14:44</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4543,7 +4593,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.502</t>
+          <t>Mouse session - Score: 0.635</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4553,7 +4603,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20260908_003</t>
+          <t>MOUSE_20260907_003</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4566,12 +4616,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09:33:35</t>
+          <t>15:14:44</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4580,58 +4630,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>5035</v>
+        <v>6949</v>
       </c>
       <c r="L25" t="n">
-        <v>5035</v>
+        <v>6949</v>
       </c>
       <c r="M25" t="n">
-        <v>30133.63</v>
+        <v>5884.44</v>
       </c>
       <c r="N25" t="n">
-        <v>18080.18</v>
+        <v>3530.67</v>
       </c>
       <c r="O25" t="n">
-        <v>12053.45</v>
+        <v>2353.78</v>
       </c>
       <c r="P25" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q25" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
-        <v>153.94</v>
+        <v>151.39</v>
       </c>
       <c r="S25" t="n">
-        <v>195.74</v>
+        <v>38.87</v>
       </c>
       <c r="T25" t="n">
-        <v>31.28</v>
+        <v>22.47</v>
       </c>
       <c r="U25" t="n">
-        <v>117.45</v>
+        <v>23.32</v>
       </c>
       <c r="V25" t="n">
-        <v>78.3</v>
+        <v>15.55</v>
       </c>
       <c r="W25" t="n">
-        <v>22.1</v>
+        <v>4.78</v>
       </c>
       <c r="X25" t="n">
-        <v>6.32</v>
+        <v>13.21</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.94</v>
+        <v>151.39</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.502</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-09-09 11:14:20</t>
+          <t>2026-09-08 16:51:52</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4641,7 +4691,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.884</t>
+          <t>Mouse session - Score: 0.855</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4651,7 +4701,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20260909_000</t>
+          <t>MOUSE_20260908_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4664,12 +4714,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11:14:20</t>
+          <t>16:51:52</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4678,58 +4728,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>6629</v>
+        <v>18493</v>
       </c>
       <c r="L26" t="n">
-        <v>6629</v>
+        <v>18493</v>
       </c>
       <c r="M26" t="n">
-        <v>26745.61</v>
+        <v>37952.75</v>
       </c>
       <c r="N26" t="n">
-        <v>16047.37</v>
+        <v>22771.65</v>
       </c>
       <c r="O26" t="n">
-        <v>10698.24</v>
+        <v>15181.1</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="R26" t="n">
-        <v>31.94</v>
+        <v>140.89</v>
       </c>
       <c r="S26" t="n">
-        <v>837.29</v>
+        <v>269.38</v>
       </c>
       <c r="T26" t="n">
-        <v>45.3</v>
+        <v>12.03</v>
       </c>
       <c r="U26" t="n">
-        <v>502.37</v>
+        <v>161.63</v>
       </c>
       <c r="V26" t="n">
-        <v>334.91</v>
+        <v>107.75</v>
       </c>
       <c r="W26" t="n">
-        <v>27.78</v>
+        <v>22.83</v>
       </c>
       <c r="X26" t="n">
-        <v>2.02</v>
+        <v>16.34</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.94</v>
+        <v>140.89</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.884</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-09-09 10:33:44</t>
+          <t>2026-09-08 09:04:56</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4739,7 +4789,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.574</t>
+          <t>Mouse session - Score: 0.542</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4749,7 +4799,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20260909_001</t>
+          <t>MOUSE_20260908_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4762,12 +4812,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10:33:44</t>
+          <t>09:04:56</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4776,58 +4826,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>17131</v>
+        <v>27976</v>
       </c>
       <c r="L27" t="n">
-        <v>17131</v>
+        <v>27976</v>
       </c>
       <c r="M27" t="n">
-        <v>19770.22</v>
+        <v>37012.49</v>
       </c>
       <c r="N27" t="n">
-        <v>11862.13</v>
+        <v>22207.49</v>
       </c>
       <c r="O27" t="n">
-        <v>7908.09</v>
+        <v>14805</v>
       </c>
       <c r="P27" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="Q27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R27" t="n">
-        <v>88.59</v>
+        <v>132.03</v>
       </c>
       <c r="S27" t="n">
-        <v>223.17</v>
+        <v>280.32</v>
       </c>
       <c r="T27" t="n">
-        <v>29.38</v>
+        <v>20.11</v>
       </c>
       <c r="U27" t="n">
-        <v>133.9</v>
+        <v>168.19</v>
       </c>
       <c r="V27" t="n">
-        <v>89.27</v>
+        <v>112.13</v>
       </c>
       <c r="W27" t="n">
-        <v>17.11</v>
+        <v>27.54</v>
       </c>
       <c r="X27" t="n">
-        <v>13.72</v>
+        <v>17.18</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.59</v>
+        <v>132.03</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.574</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-09-09 12:56:55</t>
+          <t>2026-09-08 11:17:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4837,7 +4887,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.585</t>
+          <t>Mouse session - Score: 0.591</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4847,7 +4897,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20260909_002</t>
+          <t>MOUSE_20260908_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4860,12 +4910,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12:56:55</t>
+          <t>11:17:36</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -4874,58 +4924,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>11833</v>
+        <v>12001</v>
       </c>
       <c r="L28" t="n">
-        <v>11833</v>
+        <v>12001</v>
       </c>
       <c r="M28" t="n">
-        <v>14294.28</v>
+        <v>23510.74</v>
       </c>
       <c r="N28" t="n">
-        <v>8576.57</v>
+        <v>14106.45</v>
       </c>
       <c r="O28" t="n">
-        <v>5717.71</v>
+        <v>9404.299999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R28" t="n">
-        <v>74.40000000000001</v>
+        <v>61.14</v>
       </c>
       <c r="S28" t="n">
-        <v>192.12</v>
+        <v>384.56</v>
       </c>
       <c r="T28" t="n">
-        <v>23.35</v>
+        <v>17.6</v>
       </c>
       <c r="U28" t="n">
-        <v>115.27</v>
+        <v>230.73</v>
       </c>
       <c r="V28" t="n">
-        <v>76.84999999999999</v>
+        <v>153.82</v>
       </c>
       <c r="W28" t="n">
-        <v>16.48</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>27.43</v>
+        <v>4.02</v>
       </c>
       <c r="Y28" t="n">
-        <v>74.40000000000001</v>
+        <v>61.14</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.585</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-09-09 17:46:31</t>
+          <t>2026-09-08 13:02:50</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4935,7 +4985,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.479</t>
+          <t>Mouse session - Score: 0.582</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4945,7 +4995,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MOUSE_20260909_003</t>
+          <t>MOUSE_20260908_003</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4958,12 +5008,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17:46:31</t>
+          <t>13:02:50</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4972,58 +5022,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>17101</v>
+        <v>24537</v>
       </c>
       <c r="L29" t="n">
-        <v>17101</v>
+        <v>24537</v>
       </c>
       <c r="M29" t="n">
-        <v>6760.22</v>
+        <v>13378.51</v>
       </c>
       <c r="N29" t="n">
-        <v>4056.13</v>
+        <v>8027.1</v>
       </c>
       <c r="O29" t="n">
-        <v>2704.09</v>
+        <v>5351.4</v>
       </c>
       <c r="P29" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>55.82</v>
+        <v>107.3</v>
       </c>
       <c r="S29" t="n">
-        <v>121.11</v>
+        <v>124.68</v>
       </c>
       <c r="T29" t="n">
-        <v>47.91</v>
+        <v>28.92</v>
       </c>
       <c r="U29" t="n">
-        <v>72.67</v>
+        <v>74.81</v>
       </c>
       <c r="V29" t="n">
-        <v>48.45</v>
+        <v>49.87</v>
       </c>
       <c r="W29" t="n">
-        <v>13.16</v>
+        <v>29.48</v>
       </c>
       <c r="X29" t="n">
-        <v>18.18</v>
+        <v>5.78</v>
       </c>
       <c r="Y29" t="n">
-        <v>55.82</v>
+        <v>107.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.479</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-09-10 10:20:18</t>
+          <t>2026-09-09 13:34:32</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5033,7 +5083,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.575</t>
+          <t>Mouse session - Score: 0.626</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5043,7 +5093,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MOUSE_20260910_000</t>
+          <t>MOUSE_20260909_000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5056,12 +5106,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10:20:18</t>
+          <t>13:34:32</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5070,58 +5120,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>12335</v>
+        <v>27195</v>
       </c>
       <c r="L30" t="n">
-        <v>12335</v>
+        <v>27195</v>
       </c>
       <c r="M30" t="n">
-        <v>31568.57</v>
+        <v>39810.13</v>
       </c>
       <c r="N30" t="n">
-        <v>18941.14</v>
+        <v>23886.08</v>
       </c>
       <c r="O30" t="n">
-        <v>12627.43</v>
+        <v>15924.05</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q30" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="R30" t="n">
-        <v>78.81999999999999</v>
+        <v>133.07</v>
       </c>
       <c r="S30" t="n">
-        <v>400.51</v>
+        <v>299.17</v>
       </c>
       <c r="T30" t="n">
-        <v>31.9</v>
+        <v>35.43</v>
       </c>
       <c r="U30" t="n">
-        <v>240.3</v>
+        <v>179.5</v>
       </c>
       <c r="V30" t="n">
-        <v>160.2</v>
+        <v>119.67</v>
       </c>
       <c r="W30" t="n">
-        <v>17.53</v>
+        <v>29.75</v>
       </c>
       <c r="X30" t="n">
-        <v>13.81</v>
+        <v>15.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>78.81999999999999</v>
+        <v>133.07</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.575</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-09-10 13:10:57</t>
+          <t>2026-09-09 16:11:14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5131,7 +5181,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.568</t>
+          <t>Mouse session - Score: 0.624</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5141,7 +5191,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MOUSE_20260910_001</t>
+          <t>MOUSE_20260909_001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5154,12 +5204,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13:10:57</t>
+          <t>16:11:14</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5168,58 +5218,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>12451</v>
+        <v>10598</v>
       </c>
       <c r="L31" t="n">
-        <v>12451</v>
+        <v>10598</v>
       </c>
       <c r="M31" t="n">
-        <v>17558.44</v>
+        <v>34503.89</v>
       </c>
       <c r="N31" t="n">
-        <v>10535.07</v>
+        <v>20702.33</v>
       </c>
       <c r="O31" t="n">
-        <v>7023.38</v>
+        <v>13801.56</v>
       </c>
       <c r="P31" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="Q31" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
-        <v>43.27</v>
+        <v>173.46</v>
       </c>
       <c r="S31" t="n">
-        <v>405.76</v>
+        <v>198.92</v>
       </c>
       <c r="T31" t="n">
-        <v>11.39</v>
+        <v>7.68</v>
       </c>
       <c r="U31" t="n">
-        <v>243.45</v>
+        <v>119.35</v>
       </c>
       <c r="V31" t="n">
-        <v>162.3</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>8.98</v>
+        <v>29.82</v>
       </c>
       <c r="X31" t="n">
-        <v>14.04</v>
+        <v>9.25</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.27</v>
+        <v>173.46</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-09-10 17:44:49</t>
+          <t>2026-09-09 11:59:22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5229,7 +5279,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.601</t>
+          <t>Mouse session - Score: 0.518</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5239,7 +5289,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MOUSE_20260910_002</t>
+          <t>MOUSE_20260909_002</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5252,12 +5302,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>17:44:49</t>
+          <t>11:59:22</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5266,58 +5316,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>11640</v>
+        <v>29336</v>
       </c>
       <c r="L32" t="n">
-        <v>11640</v>
+        <v>29336</v>
       </c>
       <c r="M32" t="n">
-        <v>14965.6</v>
+        <v>27346.93</v>
       </c>
       <c r="N32" t="n">
-        <v>8979.360000000001</v>
+        <v>16408.16</v>
       </c>
       <c r="O32" t="n">
-        <v>5986.24</v>
+        <v>10938.77</v>
       </c>
       <c r="P32" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="Q32" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="R32" t="n">
-        <v>41.98</v>
+        <v>44.62</v>
       </c>
       <c r="S32" t="n">
-        <v>356.49</v>
+        <v>612.9400000000001</v>
       </c>
       <c r="T32" t="n">
-        <v>18.86</v>
+        <v>18.68</v>
       </c>
       <c r="U32" t="n">
-        <v>213.9</v>
+        <v>367.77</v>
       </c>
       <c r="V32" t="n">
-        <v>142.6</v>
+        <v>245.18</v>
       </c>
       <c r="W32" t="n">
-        <v>4.2</v>
+        <v>22.69</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>4.43</v>
       </c>
       <c r="Y32" t="n">
-        <v>41.98</v>
+        <v>44.62</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.601</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-09-10 11:57:57</t>
+          <t>2026-09-09 10:27:41</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5327,7 +5377,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.837</t>
+          <t>Mouse session - Score: 0.501</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5337,25 +5387,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MOUSE_20260910_003</t>
+          <t>MOUSE_20260909_003</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11:57:57</t>
+          <t>10:27:41</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5364,58 +5414,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>15440</v>
+        <v>20734</v>
       </c>
       <c r="L33" t="n">
-        <v>15440</v>
+        <v>20734</v>
       </c>
       <c r="M33" t="n">
-        <v>33536.58</v>
+        <v>30298.86</v>
       </c>
       <c r="N33" t="n">
-        <v>20121.95</v>
+        <v>18179.32</v>
       </c>
       <c r="O33" t="n">
-        <v>13414.63</v>
+        <v>12119.55</v>
       </c>
       <c r="P33" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q33" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R33" t="n">
-        <v>66.73</v>
+        <v>112.75</v>
       </c>
       <c r="S33" t="n">
-        <v>502.55</v>
+        <v>268.72</v>
       </c>
       <c r="T33" t="n">
-        <v>46.99</v>
+        <v>13.04</v>
       </c>
       <c r="U33" t="n">
-        <v>301.53</v>
+        <v>161.23</v>
       </c>
       <c r="V33" t="n">
-        <v>201.02</v>
+        <v>107.49</v>
       </c>
       <c r="W33" t="n">
-        <v>28.47</v>
+        <v>24.34</v>
       </c>
       <c r="X33" t="n">
-        <v>9.91</v>
+        <v>15.83</v>
       </c>
       <c r="Y33" t="n">
-        <v>66.73</v>
+        <v>112.75</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.837</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-09-11 09:25:36</t>
+          <t>2026-09-10 09:56:06</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5425,7 +5475,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.857</t>
+          <t>Mouse session - Score: 0.472</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5435,25 +5485,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOUSE_20260911_000</t>
+          <t>MOUSE_20260910_000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09:25:36</t>
+          <t>09:56:06</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5462,58 +5512,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>26414</v>
+        <v>8562</v>
       </c>
       <c r="L34" t="n">
-        <v>26414</v>
+        <v>8562</v>
       </c>
       <c r="M34" t="n">
-        <v>38122.59</v>
+        <v>11085.67</v>
       </c>
       <c r="N34" t="n">
-        <v>22873.56</v>
+        <v>6651.4</v>
       </c>
       <c r="O34" t="n">
-        <v>15249.04</v>
+        <v>4434.27</v>
       </c>
       <c r="P34" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Q34" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>172.29</v>
+        <v>171.73</v>
       </c>
       <c r="S34" t="n">
-        <v>221.27</v>
+        <v>64.55</v>
       </c>
       <c r="T34" t="n">
-        <v>39.43</v>
+        <v>16.11</v>
       </c>
       <c r="U34" t="n">
-        <v>132.76</v>
+        <v>38.73</v>
       </c>
       <c r="V34" t="n">
-        <v>88.51000000000001</v>
+        <v>25.82</v>
       </c>
       <c r="W34" t="n">
-        <v>3.57</v>
+        <v>28.94</v>
       </c>
       <c r="X34" t="n">
-        <v>12.72</v>
+        <v>18.91</v>
       </c>
       <c r="Y34" t="n">
-        <v>172.29</v>
+        <v>171.73</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.857</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-09-11 14:21:05</t>
+          <t>2026-09-10 16:25:42</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5523,7 +5573,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.593</t>
+          <t>Mouse session - Score: 0.454</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5533,7 +5583,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MOUSE_20260911_001</t>
+          <t>MOUSE_20260910_001</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5546,12 +5596,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>14:21:05</t>
+          <t>16:25:42</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5560,58 +5610,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>15437</v>
+        <v>26536</v>
       </c>
       <c r="L35" t="n">
-        <v>15437</v>
+        <v>26536</v>
       </c>
       <c r="M35" t="n">
-        <v>9684.459999999999</v>
+        <v>13756.6</v>
       </c>
       <c r="N35" t="n">
-        <v>5810.67</v>
+        <v>8253.959999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>3873.78</v>
+        <v>5502.64</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>158.36</v>
+        <v>121.06</v>
       </c>
       <c r="S35" t="n">
-        <v>61.16</v>
+        <v>113.63</v>
       </c>
       <c r="T35" t="n">
-        <v>16.08</v>
+        <v>35.87</v>
       </c>
       <c r="U35" t="n">
-        <v>36.69</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="V35" t="n">
-        <v>24.46</v>
+        <v>45.45</v>
       </c>
       <c r="W35" t="n">
-        <v>7.12</v>
+        <v>24.86</v>
       </c>
       <c r="X35" t="n">
-        <v>23.85</v>
+        <v>23.65</v>
       </c>
       <c r="Y35" t="n">
-        <v>158.36</v>
+        <v>121.06</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.593</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-09-11 11:57:46</t>
+          <t>2026-09-10 14:58:44</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5621,7 +5671,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.637</t>
+          <t>Mouse session - Score: 0.634</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5631,7 +5681,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MOUSE_20260911_002</t>
+          <t>MOUSE_20260910_002</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5644,12 +5694,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11:57:46</t>
+          <t>14:58:44</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5658,58 +5708,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>7105</v>
+        <v>8331</v>
       </c>
       <c r="L36" t="n">
-        <v>7105</v>
+        <v>8331</v>
       </c>
       <c r="M36" t="n">
-        <v>37905.62</v>
+        <v>26761.26</v>
       </c>
       <c r="N36" t="n">
-        <v>22743.37</v>
+        <v>16056.75</v>
       </c>
       <c r="O36" t="n">
-        <v>15162.25</v>
+        <v>10704.5</v>
       </c>
       <c r="P36" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Q36" t="n">
         <v>20</v>
       </c>
       <c r="R36" t="n">
-        <v>48.74</v>
+        <v>171.8</v>
       </c>
       <c r="S36" t="n">
-        <v>777.63</v>
+        <v>155.77</v>
       </c>
       <c r="T36" t="n">
-        <v>20.51</v>
+        <v>24.89</v>
       </c>
       <c r="U36" t="n">
-        <v>466.58</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="V36" t="n">
-        <v>311.05</v>
+        <v>62.31</v>
       </c>
       <c r="W36" t="n">
-        <v>6.5</v>
+        <v>23.13</v>
       </c>
       <c r="X36" t="n">
-        <v>21.9</v>
+        <v>13.75</v>
       </c>
       <c r="Y36" t="n">
-        <v>48.74</v>
+        <v>171.8</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.637</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-09-11 09:13:40</t>
+          <t>2026-09-10 11:04:14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5719,7 +5769,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.469</t>
+          <t>Mouse session - Score: 0.527</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5729,7 +5779,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MOUSE_20260911_003</t>
+          <t>MOUSE_20260910_003</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5742,12 +5792,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09:13:40</t>
+          <t>11:04:14</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5756,58 +5806,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>10288</v>
+        <v>25400</v>
       </c>
       <c r="L37" t="n">
-        <v>10288</v>
+        <v>25400</v>
       </c>
       <c r="M37" t="n">
-        <v>26608.17</v>
+        <v>20554.75</v>
       </c>
       <c r="N37" t="n">
-        <v>15964.9</v>
+        <v>12332.85</v>
       </c>
       <c r="O37" t="n">
-        <v>10643.27</v>
+        <v>8221.9</v>
       </c>
       <c r="P37" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Q37" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R37" t="n">
-        <v>35.58</v>
+        <v>160.62</v>
       </c>
       <c r="S37" t="n">
-        <v>747.83</v>
+        <v>127.97</v>
       </c>
       <c r="T37" t="n">
-        <v>41.53</v>
+        <v>27.89</v>
       </c>
       <c r="U37" t="n">
-        <v>448.7</v>
+        <v>76.78</v>
       </c>
       <c r="V37" t="n">
-        <v>299.13</v>
+        <v>51.19</v>
       </c>
       <c r="W37" t="n">
-        <v>6.82</v>
+        <v>27.72</v>
       </c>
       <c r="X37" t="n">
-        <v>10.5</v>
+        <v>23.85</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.58</v>
+        <v>160.62</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.469</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-09-14 13:32:41</t>
+          <t>2026-09-11 10:21:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5817,7 +5867,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.867</t>
+          <t>Mouse session - Score: 0.846</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5827,7 +5877,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20260914_000</t>
+          <t>MOUSE_20260911_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5840,12 +5890,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13:32:41</t>
+          <t>10:21:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5854,58 +5904,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>9586</v>
+        <v>18221</v>
       </c>
       <c r="L38" t="n">
-        <v>9586</v>
+        <v>18221</v>
       </c>
       <c r="M38" t="n">
-        <v>10760.81</v>
+        <v>8165.88</v>
       </c>
       <c r="N38" t="n">
-        <v>6456.49</v>
+        <v>4899.53</v>
       </c>
       <c r="O38" t="n">
-        <v>4304.32</v>
+        <v>3266.35</v>
       </c>
       <c r="P38" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q38" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R38" t="n">
-        <v>40.95</v>
+        <v>128.74</v>
       </c>
       <c r="S38" t="n">
-        <v>262.8</v>
+        <v>63.43</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17</v>
+        <v>28.45</v>
       </c>
       <c r="U38" t="n">
-        <v>157.68</v>
+        <v>38.06</v>
       </c>
       <c r="V38" t="n">
-        <v>105.12</v>
+        <v>25.37</v>
       </c>
       <c r="W38" t="n">
-        <v>12.93</v>
+        <v>19.65</v>
       </c>
       <c r="X38" t="n">
-        <v>13.56</v>
+        <v>3.17</v>
       </c>
       <c r="Y38" t="n">
-        <v>40.95</v>
+        <v>128.74</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.867</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-09-14 16:21:32</t>
+          <t>2026-09-11 17:29:59</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5915,7 +5965,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.461</t>
+          <t>Mouse session - Score: 0.927</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5925,25 +5975,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20260914_001</t>
+          <t>MOUSE_20260911_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>16:21:32</t>
+          <t>17:29:59</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5952,58 +6002,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>20235</v>
+        <v>24790</v>
       </c>
       <c r="L39" t="n">
-        <v>20235</v>
+        <v>24790</v>
       </c>
       <c r="M39" t="n">
-        <v>14865.16</v>
+        <v>28622.12</v>
       </c>
       <c r="N39" t="n">
-        <v>8919.09</v>
+        <v>17173.27</v>
       </c>
       <c r="O39" t="n">
-        <v>5946.06</v>
+        <v>11448.85</v>
       </c>
       <c r="P39" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q39" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>138.21</v>
+        <v>50.7</v>
       </c>
       <c r="S39" t="n">
-        <v>107.55</v>
+        <v>564.55</v>
       </c>
       <c r="T39" t="n">
-        <v>25.16</v>
+        <v>42.2</v>
       </c>
       <c r="U39" t="n">
-        <v>64.53</v>
+        <v>338.73</v>
       </c>
       <c r="V39" t="n">
-        <v>43.02</v>
+        <v>225.82</v>
       </c>
       <c r="W39" t="n">
-        <v>19.16</v>
+        <v>24.04</v>
       </c>
       <c r="X39" t="n">
-        <v>11.49</v>
+        <v>26.21</v>
       </c>
       <c r="Y39" t="n">
-        <v>138.21</v>
+        <v>50.7</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.461</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-09-14 17:55:30</t>
+          <t>2026-09-11 17:54:37</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6013,7 +6063,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.492</t>
+          <t>Mouse session - Score: 0.467</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6023,7 +6073,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20260914_002</t>
+          <t>MOUSE_20260911_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6036,12 +6086,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>17:55:30</t>
+          <t>17:54:37</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6050,58 +6100,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>8801</v>
+        <v>11655</v>
       </c>
       <c r="L40" t="n">
-        <v>8801</v>
+        <v>11655</v>
       </c>
       <c r="M40" t="n">
-        <v>19316.73</v>
+        <v>14194.62</v>
       </c>
       <c r="N40" t="n">
-        <v>11590.04</v>
+        <v>8516.77</v>
       </c>
       <c r="O40" t="n">
-        <v>7726.69</v>
+        <v>5677.85</v>
       </c>
       <c r="P40" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q40" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R40" t="n">
-        <v>90.93000000000001</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="S40" t="n">
-        <v>212.43</v>
+        <v>187.98</v>
       </c>
       <c r="T40" t="n">
-        <v>46.68</v>
+        <v>14.05</v>
       </c>
       <c r="U40" t="n">
-        <v>127.46</v>
+        <v>112.79</v>
       </c>
       <c r="V40" t="n">
-        <v>84.97</v>
+        <v>75.19</v>
       </c>
       <c r="W40" t="n">
-        <v>22.55</v>
+        <v>13.86</v>
       </c>
       <c r="X40" t="n">
-        <v>28.68</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.93000000000001</v>
+        <v>75.51000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.492</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-09-14 10:25:37</t>
+          <t>2026-09-11 15:50:15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6111,7 +6161,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.554</t>
+          <t>Mouse session - Score: 0.551</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6121,7 +6171,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20260914_003</t>
+          <t>MOUSE_20260911_003</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6134,12 +6184,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10:25:37</t>
+          <t>15:50:15</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6148,58 +6198,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>21092</v>
+        <v>22936</v>
       </c>
       <c r="L41" t="n">
-        <v>21092</v>
+        <v>22936</v>
       </c>
       <c r="M41" t="n">
-        <v>18172.6</v>
+        <v>17993.14</v>
       </c>
       <c r="N41" t="n">
-        <v>10903.56</v>
+        <v>10795.88</v>
       </c>
       <c r="O41" t="n">
-        <v>7269.04</v>
+        <v>7197.25</v>
       </c>
       <c r="P41" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q41" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>83.77</v>
+        <v>156.33</v>
       </c>
       <c r="S41" t="n">
-        <v>216.94</v>
+        <v>115.1</v>
       </c>
       <c r="T41" t="n">
-        <v>17.21</v>
+        <v>20.94</v>
       </c>
       <c r="U41" t="n">
-        <v>130.17</v>
+        <v>69.06</v>
       </c>
       <c r="V41" t="n">
-        <v>86.78</v>
+        <v>46.04</v>
       </c>
       <c r="W41" t="n">
-        <v>28.58</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="X41" t="n">
-        <v>16.13</v>
+        <v>25.42</v>
       </c>
       <c r="Y41" t="n">
-        <v>83.77</v>
+        <v>156.33</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.554</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-09-15 12:39:43</t>
+          <t>2026-09-12 16:07:17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6209,7 +6259,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.468</t>
+          <t>Mouse session - Score: 0.609</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6219,7 +6269,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20260915_000</t>
+          <t>MOUSE_20260912_000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6232,12 +6282,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>12:39:43</t>
+          <t>16:07:17</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6246,58 +6296,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>5393</v>
+        <v>11603</v>
       </c>
       <c r="L42" t="n">
-        <v>5393</v>
+        <v>11603</v>
       </c>
       <c r="M42" t="n">
-        <v>26314.81</v>
+        <v>16751.11</v>
       </c>
       <c r="N42" t="n">
-        <v>15788.88</v>
+        <v>10050.67</v>
       </c>
       <c r="O42" t="n">
-        <v>10525.92</v>
+        <v>6700.45</v>
       </c>
       <c r="P42" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q42" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>174.36</v>
+        <v>123.1</v>
       </c>
       <c r="S42" t="n">
-        <v>150.92</v>
+        <v>136.08</v>
       </c>
       <c r="T42" t="n">
-        <v>9.31</v>
+        <v>14.08</v>
       </c>
       <c r="U42" t="n">
-        <v>90.55</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="V42" t="n">
-        <v>60.37</v>
+        <v>54.43</v>
       </c>
       <c r="W42" t="n">
-        <v>29.64</v>
+        <v>27.94</v>
       </c>
       <c r="X42" t="n">
-        <v>27.62</v>
+        <v>18.25</v>
       </c>
       <c r="Y42" t="n">
-        <v>174.36</v>
+        <v>123.1</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.468</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-09-15 09:53:24</t>
+          <t>2026-09-12 10:58:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6307,7 +6357,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.467</t>
+          <t>Mouse session - Score: 0.514</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6317,7 +6367,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20260915_001</t>
+          <t>MOUSE_20260912_001</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6330,12 +6380,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>09:53:24</t>
+          <t>10:58:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6344,58 +6394,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>19740</v>
+        <v>8058</v>
       </c>
       <c r="L43" t="n">
-        <v>19740</v>
+        <v>8058</v>
       </c>
       <c r="M43" t="n">
-        <v>35319.92</v>
+        <v>24979.37</v>
       </c>
       <c r="N43" t="n">
-        <v>21191.95</v>
+        <v>14987.62</v>
       </c>
       <c r="O43" t="n">
-        <v>14127.97</v>
+        <v>9991.75</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q43" t="n">
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>134.97</v>
+        <v>51.41</v>
       </c>
       <c r="S43" t="n">
-        <v>261.69</v>
+        <v>485.93</v>
       </c>
       <c r="T43" t="n">
-        <v>8.9</v>
+        <v>5.39</v>
       </c>
       <c r="U43" t="n">
-        <v>157.01</v>
+        <v>291.56</v>
       </c>
       <c r="V43" t="n">
-        <v>104.68</v>
+        <v>194.37</v>
       </c>
       <c r="W43" t="n">
-        <v>25.99</v>
+        <v>19.43</v>
       </c>
       <c r="X43" t="n">
-        <v>16.8</v>
+        <v>28.44</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.97</v>
+        <v>51.41</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.467</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-09-15 12:36:25</t>
+          <t>2026-09-12 11:02:46</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6405,7 +6455,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.515</t>
+          <t>Mouse session - Score: 0.635</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6415,7 +6465,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20260915_002</t>
+          <t>MOUSE_20260912_002</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6428,12 +6478,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>12:36:25</t>
+          <t>11:02:46</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6442,58 +6492,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>16065</v>
+        <v>11564</v>
       </c>
       <c r="L44" t="n">
-        <v>16065</v>
+        <v>11564</v>
       </c>
       <c r="M44" t="n">
-        <v>35688.55</v>
+        <v>7040.79</v>
       </c>
       <c r="N44" t="n">
-        <v>21413.13</v>
+        <v>4224.47</v>
       </c>
       <c r="O44" t="n">
-        <v>14275.42</v>
+        <v>2816.31</v>
       </c>
       <c r="P44" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="R44" t="n">
-        <v>111.2</v>
+        <v>156.53</v>
       </c>
       <c r="S44" t="n">
-        <v>320.95</v>
+        <v>44.98</v>
       </c>
       <c r="T44" t="n">
-        <v>43.05</v>
+        <v>28.24</v>
       </c>
       <c r="U44" t="n">
-        <v>192.57</v>
+        <v>26.99</v>
       </c>
       <c r="V44" t="n">
-        <v>128.38</v>
+        <v>17.99</v>
       </c>
       <c r="W44" t="n">
-        <v>26.8</v>
+        <v>25.74</v>
       </c>
       <c r="X44" t="n">
-        <v>24.27</v>
+        <v>3.1</v>
       </c>
       <c r="Y44" t="n">
-        <v>111.2</v>
+        <v>156.53</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.515</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-09-15 13:48:07</t>
+          <t>2026-09-12 14:37:07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6503,7 +6553,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.535</t>
+          <t>Mouse session - Score: 0.493</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6513,7 +6563,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20260915_003</t>
+          <t>MOUSE_20260912_003</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6526,12 +6576,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>13:48:07</t>
+          <t>14:37:07</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6540,58 +6590,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5870</v>
+        <v>25301</v>
       </c>
       <c r="L45" t="n">
-        <v>5870</v>
+        <v>25301</v>
       </c>
       <c r="M45" t="n">
-        <v>39764.21</v>
+        <v>34750.85</v>
       </c>
       <c r="N45" t="n">
-        <v>23858.52</v>
+        <v>20850.51</v>
       </c>
       <c r="O45" t="n">
-        <v>15905.68</v>
+        <v>13900.34</v>
       </c>
       <c r="P45" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q45" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R45" t="n">
-        <v>66.66</v>
+        <v>169.16</v>
       </c>
       <c r="S45" t="n">
-        <v>596.49</v>
+        <v>205.44</v>
       </c>
       <c r="T45" t="n">
-        <v>47.62</v>
+        <v>40.75</v>
       </c>
       <c r="U45" t="n">
-        <v>357.89</v>
+        <v>123.26</v>
       </c>
       <c r="V45" t="n">
-        <v>238.59</v>
+        <v>82.17</v>
       </c>
       <c r="W45" t="n">
-        <v>4.34</v>
+        <v>19.38</v>
       </c>
       <c r="X45" t="n">
-        <v>27.06</v>
+        <v>11.59</v>
       </c>
       <c r="Y45" t="n">
-        <v>66.66</v>
+        <v>169.16</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.535</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-09-16 13:13:33</t>
+          <t>2026-09-14 16:39:08</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6601,7 +6651,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.471</t>
+          <t>Mouse session - Score: 0.555</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6611,7 +6661,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20260916_000</t>
+          <t>MOUSE_20260914_000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6624,12 +6674,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>13:13:33</t>
+          <t>16:39:08</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6638,58 +6688,58 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>23558</v>
+        <v>29064</v>
       </c>
       <c r="L46" t="n">
-        <v>23558</v>
+        <v>29064</v>
       </c>
       <c r="M46" t="n">
-        <v>34145.79</v>
+        <v>7843.31</v>
       </c>
       <c r="N46" t="n">
-        <v>20487.47</v>
+        <v>4705.99</v>
       </c>
       <c r="O46" t="n">
-        <v>13658.31</v>
+        <v>3137.33</v>
       </c>
       <c r="P46" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="Q46" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R46" t="n">
-        <v>99.01000000000001</v>
+        <v>95.31</v>
       </c>
       <c r="S46" t="n">
-        <v>344.86</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="T46" t="n">
-        <v>16.66</v>
+        <v>31.15</v>
       </c>
       <c r="U46" t="n">
-        <v>206.92</v>
+        <v>49.38</v>
       </c>
       <c r="V46" t="n">
-        <v>137.95</v>
+        <v>32.92</v>
       </c>
       <c r="W46" t="n">
-        <v>8.720000000000001</v>
+        <v>10.73</v>
       </c>
       <c r="X46" t="n">
-        <v>3.12</v>
+        <v>4.53</v>
       </c>
       <c r="Y46" t="n">
-        <v>99.01000000000001</v>
+        <v>95.31</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.471</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-09-16 12:14:18</t>
+          <t>2026-09-14 14:31:17</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6699,7 +6749,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.508</t>
+          <t>Mouse session - Score: 0.853</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -6709,25 +6759,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MOUSE_20260916_001</t>
+          <t>MOUSE_20260914_001</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12:14:18</t>
+          <t>14:31:17</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6736,58 +6786,58 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>15116</v>
+        <v>17905</v>
       </c>
       <c r="L47" t="n">
-        <v>15116</v>
+        <v>17905</v>
       </c>
       <c r="M47" t="n">
-        <v>30960.41</v>
+        <v>19478.83</v>
       </c>
       <c r="N47" t="n">
-        <v>18576.24</v>
+        <v>11687.3</v>
       </c>
       <c r="O47" t="n">
-        <v>12384.16</v>
+        <v>7791.53</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q47" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="R47" t="n">
-        <v>97.39</v>
+        <v>69.31</v>
       </c>
       <c r="S47" t="n">
-        <v>317.89</v>
+        <v>281.03</v>
       </c>
       <c r="T47" t="n">
-        <v>33.1</v>
+        <v>6.82</v>
       </c>
       <c r="U47" t="n">
-        <v>190.74</v>
+        <v>168.62</v>
       </c>
       <c r="V47" t="n">
-        <v>127.16</v>
+        <v>112.41</v>
       </c>
       <c r="W47" t="n">
-        <v>26.03</v>
+        <v>16.44</v>
       </c>
       <c r="X47" t="n">
-        <v>29.19</v>
+        <v>12.31</v>
       </c>
       <c r="Y47" t="n">
-        <v>97.39</v>
+        <v>69.31</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.508</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-09-16 16:23:01</t>
+          <t>2026-09-14 13:03:10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6797,7 +6847,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.555</t>
+          <t>Mouse session - Score: 0.488</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -6807,7 +6857,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MOUSE_20260916_002</t>
+          <t>MOUSE_20260914_002</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6820,12 +6870,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16:23:01</t>
+          <t>13:03:10</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6834,58 +6884,58 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>9701</v>
+        <v>25870</v>
       </c>
       <c r="L48" t="n">
-        <v>9701</v>
+        <v>25870</v>
       </c>
       <c r="M48" t="n">
-        <v>12823.31</v>
+        <v>26943.61</v>
       </c>
       <c r="N48" t="n">
-        <v>7693.99</v>
+        <v>16166.17</v>
       </c>
       <c r="O48" t="n">
-        <v>5129.32</v>
+        <v>10777.44</v>
       </c>
       <c r="P48" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q48" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48" t="n">
-        <v>146.53</v>
+        <v>37.91</v>
       </c>
       <c r="S48" t="n">
-        <v>87.52</v>
+        <v>710.76</v>
       </c>
       <c r="T48" t="n">
-        <v>9.949999999999999</v>
+        <v>45.78</v>
       </c>
       <c r="U48" t="n">
-        <v>52.51</v>
+        <v>426.46</v>
       </c>
       <c r="V48" t="n">
-        <v>35.01</v>
+        <v>284.3</v>
       </c>
       <c r="W48" t="n">
-        <v>19.41</v>
+        <v>16.99</v>
       </c>
       <c r="X48" t="n">
-        <v>17.08</v>
+        <v>3.27</v>
       </c>
       <c r="Y48" t="n">
-        <v>146.53</v>
+        <v>37.91</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.555</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-09-16 12:22:56</t>
+          <t>2026-09-14 16:10:08</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6895,7 +6945,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.591</t>
+          <t>Mouse session - Score: 0.943</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -6905,25 +6955,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MOUSE_20260916_003</t>
+          <t>MOUSE_20260914_003</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>12:22:56</t>
+          <t>16:10:08</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6932,58 +6982,58 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>5412</v>
+        <v>6984</v>
       </c>
       <c r="L49" t="n">
-        <v>5412</v>
+        <v>6984</v>
       </c>
       <c r="M49" t="n">
-        <v>17542.42</v>
+        <v>32377.03</v>
       </c>
       <c r="N49" t="n">
-        <v>10525.45</v>
+        <v>19426.22</v>
       </c>
       <c r="O49" t="n">
-        <v>7016.97</v>
+        <v>12950.81</v>
       </c>
       <c r="P49" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q49" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R49" t="n">
-        <v>90.78</v>
+        <v>52.42</v>
       </c>
       <c r="S49" t="n">
-        <v>193.24</v>
+        <v>617.59</v>
       </c>
       <c r="T49" t="n">
-        <v>35.5</v>
+        <v>22.12</v>
       </c>
       <c r="U49" t="n">
-        <v>115.95</v>
+        <v>370.55</v>
       </c>
       <c r="V49" t="n">
-        <v>77.3</v>
+        <v>247.04</v>
       </c>
       <c r="W49" t="n">
-        <v>2.33</v>
+        <v>25.21</v>
       </c>
       <c r="X49" t="n">
-        <v>16.02</v>
+        <v>7.68</v>
       </c>
       <c r="Y49" t="n">
-        <v>90.78</v>
+        <v>52.42</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.591</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-09-17 13:19:47</t>
+          <t>2026-09-15 11:14:02</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6993,7 +7043,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.623</t>
+          <t>Mouse session - Score: 0.538</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -7003,7 +7053,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MOUSE_20260917_000</t>
+          <t>MOUSE_20260915_000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -7016,12 +7066,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>13:19:47</t>
+          <t>11:14:02</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -7030,58 +7080,58 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>9765</v>
+        <v>23510</v>
       </c>
       <c r="L50" t="n">
-        <v>9765</v>
+        <v>23510</v>
       </c>
       <c r="M50" t="n">
-        <v>23451.14</v>
+        <v>29484.47</v>
       </c>
       <c r="N50" t="n">
-        <v>14070.68</v>
+        <v>17690.68</v>
       </c>
       <c r="O50" t="n">
-        <v>9380.459999999999</v>
+        <v>11793.79</v>
       </c>
       <c r="P50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q50" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="R50" t="n">
-        <v>131.04</v>
+        <v>40.89</v>
       </c>
       <c r="S50" t="n">
-        <v>178.96</v>
+        <v>721</v>
       </c>
       <c r="T50" t="n">
-        <v>9.470000000000001</v>
+        <v>14.55</v>
       </c>
       <c r="U50" t="n">
-        <v>107.38</v>
+        <v>432.6</v>
       </c>
       <c r="V50" t="n">
-        <v>71.58</v>
+        <v>288.4</v>
       </c>
       <c r="W50" t="n">
-        <v>27.93</v>
+        <v>10.94</v>
       </c>
       <c r="X50" t="n">
-        <v>6.33</v>
+        <v>9.08</v>
       </c>
       <c r="Y50" t="n">
-        <v>131.04</v>
+        <v>40.89</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.623</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-09-17 09:14:30</t>
+          <t>2026-09-15 14:27:09</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7091,7 +7141,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.623</t>
+          <t>Mouse session - Score: 0.640</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7101,7 +7151,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MOUSE_20260917_001</t>
+          <t>MOUSE_20260915_001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -7114,12 +7164,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>09:14:30</t>
+          <t>14:27:09</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -7128,58 +7178,58 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>26652</v>
+        <v>26654</v>
       </c>
       <c r="L51" t="n">
-        <v>26652</v>
+        <v>26654</v>
       </c>
       <c r="M51" t="n">
-        <v>6351.7</v>
+        <v>27476.13</v>
       </c>
       <c r="N51" t="n">
-        <v>3811.02</v>
+        <v>16485.68</v>
       </c>
       <c r="O51" t="n">
-        <v>2540.68</v>
+        <v>10990.45</v>
       </c>
       <c r="P51" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q51" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="R51" t="n">
-        <v>41.38</v>
+        <v>90.44</v>
       </c>
       <c r="S51" t="n">
-        <v>153.5</v>
+        <v>303.81</v>
       </c>
       <c r="T51" t="n">
-        <v>28.38</v>
+        <v>23.02</v>
       </c>
       <c r="U51" t="n">
-        <v>92.09999999999999</v>
+        <v>182.29</v>
       </c>
       <c r="V51" t="n">
-        <v>61.4</v>
+        <v>121.52</v>
       </c>
       <c r="W51" t="n">
-        <v>8.83</v>
+        <v>24.83</v>
       </c>
       <c r="X51" t="n">
-        <v>4.87</v>
+        <v>21.92</v>
       </c>
       <c r="Y51" t="n">
-        <v>41.38</v>
+        <v>90.44</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.623</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-09-17 11:42:54</t>
+          <t>2026-09-15 10:49:57</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7189,7 +7239,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.484</t>
+          <t>Mouse session - Score: 0.474</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7199,7 +7249,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MOUSE_20260917_002</t>
+          <t>MOUSE_20260915_002</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -7212,12 +7262,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11:42:54</t>
+          <t>10:49:57</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -7226,58 +7276,58 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>10196</v>
+        <v>15581</v>
       </c>
       <c r="L52" t="n">
-        <v>10196</v>
+        <v>15581</v>
       </c>
       <c r="M52" t="n">
-        <v>33366.6</v>
+        <v>35749.28</v>
       </c>
       <c r="N52" t="n">
-        <v>20019.96</v>
+        <v>21449.57</v>
       </c>
       <c r="O52" t="n">
-        <v>13346.64</v>
+        <v>14299.71</v>
       </c>
       <c r="P52" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q52" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R52" t="n">
-        <v>128.88</v>
+        <v>54.41</v>
       </c>
       <c r="S52" t="n">
-        <v>258.9</v>
+        <v>657</v>
       </c>
       <c r="T52" t="n">
-        <v>47.7</v>
+        <v>42.1</v>
       </c>
       <c r="U52" t="n">
-        <v>155.34</v>
+        <v>394.2</v>
       </c>
       <c r="V52" t="n">
-        <v>103.56</v>
+        <v>262.8</v>
       </c>
       <c r="W52" t="n">
-        <v>16.21</v>
+        <v>23.51</v>
       </c>
       <c r="X52" t="n">
-        <v>2.64</v>
+        <v>19.98</v>
       </c>
       <c r="Y52" t="n">
-        <v>128.88</v>
+        <v>54.41</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.484</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-09-17 15:05:28</t>
+          <t>2026-09-15 10:45:53</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7287,7 +7337,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.583</t>
+          <t>Mouse session - Score: 0.456</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7297,7 +7347,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MOUSE_20260917_003</t>
+          <t>MOUSE_20260915_003</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -7310,12 +7360,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>15:05:28</t>
+          <t>10:45:53</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -7324,58 +7374,58 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>29656</v>
+        <v>29223</v>
       </c>
       <c r="L53" t="n">
-        <v>29656</v>
+        <v>29223</v>
       </c>
       <c r="M53" t="n">
-        <v>7300.75</v>
+        <v>13055.6</v>
       </c>
       <c r="N53" t="n">
-        <v>4380.45</v>
+        <v>7833.36</v>
       </c>
       <c r="O53" t="n">
-        <v>2920.3</v>
+        <v>5222.24</v>
       </c>
       <c r="P53" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q53" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="R53" t="n">
-        <v>134.54</v>
+        <v>107.61</v>
       </c>
       <c r="S53" t="n">
-        <v>54.27</v>
+        <v>121.33</v>
       </c>
       <c r="T53" t="n">
-        <v>44.68</v>
+        <v>40.51</v>
       </c>
       <c r="U53" t="n">
-        <v>32.56</v>
+        <v>72.8</v>
       </c>
       <c r="V53" t="n">
-        <v>21.71</v>
+        <v>48.53</v>
       </c>
       <c r="W53" t="n">
-        <v>22.69</v>
+        <v>17.64</v>
       </c>
       <c r="X53" t="n">
-        <v>8.66</v>
+        <v>3.46</v>
       </c>
       <c r="Y53" t="n">
-        <v>134.54</v>
+        <v>107.61</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.583</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-09-18 09:58:13</t>
+          <t>2026-09-16 14:01:05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7385,7 +7435,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.500</t>
+          <t>Mouse session - Score: 0.583</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -7395,7 +7445,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MOUSE_20260918_000</t>
+          <t>MOUSE_20260916_000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7408,12 +7458,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>09:58:13</t>
+          <t>14:01:05</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -7422,58 +7472,58 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>24247</v>
+        <v>14724</v>
       </c>
       <c r="L54" t="n">
-        <v>24247</v>
+        <v>14724</v>
       </c>
       <c r="M54" t="n">
-        <v>33732.81</v>
+        <v>13162.32</v>
       </c>
       <c r="N54" t="n">
-        <v>20239.69</v>
+        <v>7897.39</v>
       </c>
       <c r="O54" t="n">
-        <v>13493.12</v>
+        <v>5264.93</v>
       </c>
       <c r="P54" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Q54" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="R54" t="n">
-        <v>155.33</v>
+        <v>130.61</v>
       </c>
       <c r="S54" t="n">
-        <v>217.17</v>
+        <v>100.77</v>
       </c>
       <c r="T54" t="n">
-        <v>7.73</v>
+        <v>17.94</v>
       </c>
       <c r="U54" t="n">
-        <v>130.3</v>
+        <v>60.46</v>
       </c>
       <c r="V54" t="n">
-        <v>86.87</v>
+        <v>40.31</v>
       </c>
       <c r="W54" t="n">
-        <v>12.64</v>
+        <v>19.98</v>
       </c>
       <c r="X54" t="n">
-        <v>9.17</v>
+        <v>4.31</v>
       </c>
       <c r="Y54" t="n">
-        <v>155.33</v>
+        <v>130.61</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.5</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-09-18 16:42:40</t>
+          <t>2026-09-16 15:54:46</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7483,7 +7533,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.512</t>
+          <t>Mouse session - Score: 0.914</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7493,25 +7543,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MOUSE_20260918_001</t>
+          <t>MOUSE_20260916_001</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>16:42:40</t>
+          <t>15:54:46</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -7520,58 +7570,58 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>13189</v>
+        <v>7514</v>
       </c>
       <c r="L55" t="n">
-        <v>13189</v>
+        <v>7514</v>
       </c>
       <c r="M55" t="n">
-        <v>37746.37</v>
+        <v>37346.88</v>
       </c>
       <c r="N55" t="n">
-        <v>22647.82</v>
+        <v>22408.13</v>
       </c>
       <c r="O55" t="n">
-        <v>15098.55</v>
+        <v>14938.75</v>
       </c>
       <c r="P55" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="R55" t="n">
-        <v>111.49</v>
+        <v>110.89</v>
       </c>
       <c r="S55" t="n">
-        <v>338.58</v>
+        <v>336.79</v>
       </c>
       <c r="T55" t="n">
-        <v>16.7</v>
+        <v>30.51</v>
       </c>
       <c r="U55" t="n">
-        <v>203.15</v>
+        <v>202.07</v>
       </c>
       <c r="V55" t="n">
-        <v>135.43</v>
+        <v>134.71</v>
       </c>
       <c r="W55" t="n">
-        <v>22.07</v>
+        <v>27.21</v>
       </c>
       <c r="X55" t="n">
-        <v>25.99</v>
+        <v>23.61</v>
       </c>
       <c r="Y55" t="n">
-        <v>111.49</v>
+        <v>110.89</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.512</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-09-18 14:10:22</t>
+          <t>2026-09-16 10:33:31</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7581,7 +7631,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.858</t>
+          <t>Mouse session - Score: 0.563</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -7591,25 +7641,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MOUSE_20260918_002</t>
+          <t>MOUSE_20260916_002</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>14:10:22</t>
+          <t>10:33:31</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -7618,58 +7668,58 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>13648</v>
+        <v>26965</v>
       </c>
       <c r="L56" t="n">
-        <v>13648</v>
+        <v>26965</v>
       </c>
       <c r="M56" t="n">
-        <v>5851.65</v>
+        <v>25379.87</v>
       </c>
       <c r="N56" t="n">
-        <v>3510.99</v>
+        <v>15227.92</v>
       </c>
       <c r="O56" t="n">
-        <v>2340.66</v>
+        <v>10151.95</v>
       </c>
       <c r="P56" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R56" t="n">
-        <v>144.69</v>
+        <v>72.97</v>
       </c>
       <c r="S56" t="n">
-        <v>40.44</v>
+        <v>347.82</v>
       </c>
       <c r="T56" t="n">
-        <v>14.18</v>
+        <v>33.45</v>
       </c>
       <c r="U56" t="n">
-        <v>24.26</v>
+        <v>208.69</v>
       </c>
       <c r="V56" t="n">
-        <v>16.18</v>
+        <v>139.13</v>
       </c>
       <c r="W56" t="n">
-        <v>4.02</v>
+        <v>3.85</v>
       </c>
       <c r="X56" t="n">
-        <v>17.72</v>
+        <v>12.38</v>
       </c>
       <c r="Y56" t="n">
-        <v>144.69</v>
+        <v>72.97</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.858</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-09-18 14:27:17</t>
+          <t>2026-09-16 10:38:53</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -7679,7 +7729,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.509</t>
+          <t>Mouse session - Score: 0.522</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7689,7 +7739,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MOUSE_20260918_003</t>
+          <t>MOUSE_20260916_003</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7702,12 +7752,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>14:27:17</t>
+          <t>10:38:53</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7716,58 +7766,58 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>10442</v>
+        <v>24308</v>
       </c>
       <c r="L57" t="n">
-        <v>10442</v>
+        <v>24308</v>
       </c>
       <c r="M57" t="n">
-        <v>21414.25</v>
+        <v>33133.42</v>
       </c>
       <c r="N57" t="n">
-        <v>12848.55</v>
+        <v>19880.05</v>
       </c>
       <c r="O57" t="n">
-        <v>8565.700000000001</v>
+        <v>13253.37</v>
       </c>
       <c r="P57" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R57" t="n">
-        <v>101.72</v>
+        <v>147.3</v>
       </c>
       <c r="S57" t="n">
-        <v>210.51</v>
+        <v>224.93</v>
       </c>
       <c r="T57" t="n">
-        <v>13.8</v>
+        <v>43.89</v>
       </c>
       <c r="U57" t="n">
-        <v>126.31</v>
+        <v>134.96</v>
       </c>
       <c r="V57" t="n">
-        <v>84.20999999999999</v>
+        <v>89.97</v>
       </c>
       <c r="W57" t="n">
-        <v>5.36</v>
+        <v>21.55</v>
       </c>
       <c r="X57" t="n">
-        <v>17.43</v>
+        <v>26.49</v>
       </c>
       <c r="Y57" t="n">
-        <v>101.72</v>
+        <v>147.3</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.509</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-09-19 13:25:49</t>
+          <t>2026-09-17 11:56:00</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -7777,7 +7827,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.507</t>
+          <t>Mouse session - Score: 0.453</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7787,7 +7837,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MOUSE_20260919_000</t>
+          <t>MOUSE_20260917_000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7800,12 +7850,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>13:25:49</t>
+          <t>11:56:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -7814,58 +7864,58 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>27667</v>
+        <v>15312</v>
       </c>
       <c r="L58" t="n">
-        <v>27667</v>
+        <v>15312</v>
       </c>
       <c r="M58" t="n">
-        <v>37970.03</v>
+        <v>33209.57</v>
       </c>
       <c r="N58" t="n">
-        <v>22782.02</v>
+        <v>19925.74</v>
       </c>
       <c r="O58" t="n">
-        <v>15188.01</v>
+        <v>13283.83</v>
       </c>
       <c r="P58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>169.86</v>
+        <v>167.77</v>
       </c>
       <c r="S58" t="n">
-        <v>223.54</v>
+        <v>197.95</v>
       </c>
       <c r="T58" t="n">
-        <v>9.109999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="U58" t="n">
-        <v>134.13</v>
+        <v>118.77</v>
       </c>
       <c r="V58" t="n">
-        <v>89.42</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="W58" t="n">
-        <v>25.73</v>
+        <v>8.26</v>
       </c>
       <c r="X58" t="n">
-        <v>17.58</v>
+        <v>25.42</v>
       </c>
       <c r="Y58" t="n">
-        <v>169.86</v>
+        <v>167.77</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.507</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-09-19 12:05:25</t>
+          <t>2026-09-17 15:40:35</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -7875,7 +7925,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.538</t>
+          <t>Mouse session - Score: 0.529</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -7885,7 +7935,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MOUSE_20260919_001</t>
+          <t>MOUSE_20260917_001</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7898,12 +7948,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>12:05:25</t>
+          <t>15:40:35</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -7912,58 +7962,58 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>12076</v>
+        <v>14386</v>
       </c>
       <c r="L59" t="n">
-        <v>12076</v>
+        <v>14386</v>
       </c>
       <c r="M59" t="n">
-        <v>23429.3</v>
+        <v>38447.84</v>
       </c>
       <c r="N59" t="n">
-        <v>14057.58</v>
+        <v>23068.71</v>
       </c>
       <c r="O59" t="n">
-        <v>9371.719999999999</v>
+        <v>15379.14</v>
       </c>
       <c r="P59" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q59" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R59" t="n">
-        <v>57.62</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="S59" t="n">
-        <v>406.63</v>
+        <v>533.9</v>
       </c>
       <c r="T59" t="n">
-        <v>7.16</v>
+        <v>44.93</v>
       </c>
       <c r="U59" t="n">
-        <v>243.98</v>
+        <v>320.34</v>
       </c>
       <c r="V59" t="n">
-        <v>162.65</v>
+        <v>213.56</v>
       </c>
       <c r="W59" t="n">
-        <v>29.09</v>
+        <v>27.82</v>
       </c>
       <c r="X59" t="n">
-        <v>11.51</v>
+        <v>12.07</v>
       </c>
       <c r="Y59" t="n">
-        <v>57.62</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.538</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-09-19 10:29:18</t>
+          <t>2026-09-17 15:19:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7973,7 +8023,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.489</t>
+          <t>Mouse session - Score: 0.624</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7983,7 +8033,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MOUSE_20260919_002</t>
+          <t>MOUSE_20260917_002</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7996,12 +8046,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>10:29:18</t>
+          <t>15:19:06</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8010,58 +8060,58 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>25318</v>
+        <v>20689</v>
       </c>
       <c r="L60" t="n">
-        <v>25318</v>
+        <v>20689</v>
       </c>
       <c r="M60" t="n">
-        <v>12692.75</v>
+        <v>11088.82</v>
       </c>
       <c r="N60" t="n">
-        <v>7615.65</v>
+        <v>6653.29</v>
       </c>
       <c r="O60" t="n">
-        <v>5077.1</v>
+        <v>4435.53</v>
       </c>
       <c r="P60" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="Q60" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="R60" t="n">
-        <v>75.79000000000001</v>
+        <v>126.53</v>
       </c>
       <c r="S60" t="n">
-        <v>167.47</v>
+        <v>87.64</v>
       </c>
       <c r="T60" t="n">
-        <v>27.68</v>
+        <v>47.35</v>
       </c>
       <c r="U60" t="n">
-        <v>100.48</v>
+        <v>52.58</v>
       </c>
       <c r="V60" t="n">
-        <v>66.98999999999999</v>
+        <v>35.05</v>
       </c>
       <c r="W60" t="n">
-        <v>2.05</v>
+        <v>14.67</v>
       </c>
       <c r="X60" t="n">
-        <v>16.82</v>
+        <v>22.49</v>
       </c>
       <c r="Y60" t="n">
-        <v>75.79000000000001</v>
+        <v>126.53</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.489</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-09-19 09:57:04</t>
+          <t>2026-09-17 10:14:39</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8071,7 +8121,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.563</t>
+          <t>Mouse session - Score: 0.643</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -8081,7 +8131,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MOUSE_20260919_003</t>
+          <t>MOUSE_20260917_003</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -8094,12 +8144,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>09:57:04</t>
+          <t>10:14:39</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -8108,52 +8158,52 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>19010</v>
+        <v>11849</v>
       </c>
       <c r="L61" t="n">
-        <v>19010</v>
+        <v>11849</v>
       </c>
       <c r="M61" t="n">
-        <v>7732.78</v>
+        <v>34111.58</v>
       </c>
       <c r="N61" t="n">
-        <v>4639.67</v>
+        <v>20466.95</v>
       </c>
       <c r="O61" t="n">
-        <v>3093.11</v>
+        <v>13644.63</v>
       </c>
       <c r="P61" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="R61" t="n">
-        <v>69.98</v>
+        <v>34.15</v>
       </c>
       <c r="S61" t="n">
-        <v>110.5</v>
+        <v>998.8</v>
       </c>
       <c r="T61" t="n">
-        <v>7.14</v>
+        <v>26.88</v>
       </c>
       <c r="U61" t="n">
-        <v>66.3</v>
+        <v>599.28</v>
       </c>
       <c r="V61" t="n">
-        <v>44.2</v>
+        <v>399.52</v>
       </c>
       <c r="W61" t="n">
-        <v>4.22</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="X61" t="n">
-        <v>13.43</v>
+        <v>27.65</v>
       </c>
       <c r="Y61" t="n">
-        <v>69.98</v>
+        <v>34.15</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.643</v>
       </c>
     </row>
   </sheetData>
@@ -8167,7 +8217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8230,20 +8280,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-09-01 15:29:00</t>
+          <t>2026-09-01 12:28:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-09-01 18:25:54</t>
+          <t>2026-09-01 16:58:11</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10614</v>
+        <v>16211</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>02:56:00</t>
+          <t>04:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -8260,7 +8310,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20260901_01</t>
+          <t>BROWSER_20260902_00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8270,25 +8320,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-09-01 14:27:00</t>
+          <t>2026-09-02 14:16:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-09-01 15:59:18</t>
+          <t>2026-09-02 18:54:01</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5538</v>
+        <v>16681</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01:32:00</t>
+          <t>04:38:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-09-01</t>
+          <t>2026-09-02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8300,7 +8350,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260902_00</t>
+          <t>BROWSER_20260903_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8310,25 +8360,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-09-02 09:30:00</t>
+          <t>2026-09-03 10:14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-09-02 15:24:36</t>
+          <t>2026-09-03 14:12:59</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21276</v>
+        <v>14339</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>05:54:00</t>
+          <t>03:58:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -8340,7 +8390,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BROWSER_20260903_00</t>
+          <t>BROWSER_20260904_00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -8350,25 +8400,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-09-03 10:22:00</t>
+          <t>2026-09-04 15:11:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-09-03 15:06:08</t>
+          <t>2026-09-04 17:28:45</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17048</v>
+        <v>8265</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>04:44:00</t>
+          <t>02:17:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -8380,7 +8430,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BROWSER_20260904_00</t>
+          <t>BROWSER_20260904_01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -8390,20 +8440,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-09-04 11:45:00</t>
+          <t>2026-09-04 13:10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-09-04 14:40:00</t>
+          <t>2026-09-04 15:12:06</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10500</v>
+        <v>7326</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02:55:00</t>
+          <t>02:02:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -8420,7 +8470,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BROWSER_20260904_01</t>
+          <t>BROWSER_20260907_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -8430,25 +8480,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-09-04 15:47:00</t>
+          <t>2026-09-07 10:17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-09-04 17:38:35</t>
+          <t>2026-09-07 14:08:45</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6695</v>
+        <v>13905</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>01:51:00</t>
+          <t>03:51:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -8460,7 +8510,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20260907_00</t>
+          <t>BROWSER_20260908_00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -8470,25 +8520,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-09-07 12:00:00</t>
+          <t>2026-09-08 09:33:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-09-07 13:46:11</t>
+          <t>2026-09-08 12:55:35</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6371</v>
+        <v>12155</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>01:46:00</t>
+          <t>03:22:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -8500,7 +8550,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260907_01</t>
+          <t>BROWSER_20260909_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -8510,25 +8560,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-09-07 11:40:00</t>
+          <t>2026-09-09 13:26:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-09-07 13:55:54</t>
+          <t>2026-09-09 15:55:18</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8154</v>
+        <v>8958</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02:15:00</t>
+          <t>02:29:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -8540,7 +8590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260908_00</t>
+          <t>BROWSER_20260909_01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -8550,25 +8600,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-09-08 09:43:00</t>
+          <t>2026-09-09 15:02:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-09-08 15:39:08</t>
+          <t>2026-09-09 17:05:15</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21368</v>
+        <v>7395</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>05:56:00</t>
+          <t>02:03:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-09-08</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -8580,7 +8630,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260909_00</t>
+          <t>BROWSER_20260910_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -8590,25 +8640,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-09-09 10:20:00</t>
+          <t>2026-09-10 11:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-09-09 12:23:20</t>
+          <t>2026-09-10 14:12:48</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7400</v>
+        <v>10668</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02:03:00</t>
+          <t>02:57:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -8620,7 +8670,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260909_01</t>
+          <t>BROWSER_20260910_01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -8630,25 +8680,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-09-09 12:51:00</t>
+          <t>2026-09-10 10:40:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-09-09 15:45:43</t>
+          <t>2026-09-10 13:38:18</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10483</v>
+        <v>10698</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02:54:00</t>
+          <t>02:58:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -8660,7 +8710,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260910_00</t>
+          <t>BROWSER_20260911_00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -8670,25 +8720,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-09-10 10:14:00</t>
+          <t>2026-09-11 14:25:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-09-10 12:42:01</t>
+          <t>2026-09-11 16:14:41</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8881</v>
+        <v>6581</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02:28:00</t>
+          <t>01:49:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -8700,7 +8750,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260910_01</t>
+          <t>BROWSER_20260911_01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -8710,25 +8760,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-09-10 10:14:00</t>
+          <t>2026-09-11 15:57:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-09-10 12:26:16</t>
+          <t>2026-09-11 18:26:42</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7936</v>
+        <v>8982</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02:12:00</t>
+          <t>02:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -8740,7 +8790,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260911_00</t>
+          <t>BROWSER_20260914_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -8750,25 +8800,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-09-11 09:37:00</t>
+          <t>2026-09-14 11:09:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-09-11 11:55:10</t>
+          <t>2026-09-14 13:46:13</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8290</v>
+        <v>9433</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02:18:00</t>
+          <t>02:37:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -8780,7 +8830,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260911_01</t>
+          <t>BROWSER_20260914_01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -8790,25 +8840,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-09-11 10:26:00</t>
+          <t>2026-09-14 14:32:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-09-11 12:00:51</t>
+          <t>2026-09-14 16:22:38</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5691</v>
+        <v>6638</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01:34:00</t>
+          <t>01:50:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -8820,7 +8870,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260914_00</t>
+          <t>BROWSER_20260915_00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -8830,25 +8880,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-09-14 12:52:00</t>
+          <t>2026-09-15 12:38:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-09-14 17:44:59</t>
+          <t>2026-09-15 15:56:08</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17579</v>
+        <v>11888</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>04:52:00</t>
+          <t>03:18:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -8860,7 +8910,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260915_00</t>
+          <t>BROWSER_20260916_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -8870,25 +8920,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-09-15 12:04:00</t>
+          <t>2026-09-16 09:11:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-09-15 15:14:08</t>
+          <t>2026-09-16 11:39:42</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11408</v>
+        <v>8922</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>03:10:00</t>
+          <t>02:28:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -8900,7 +8950,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260916_00</t>
+          <t>BROWSER_20260916_01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -8910,20 +8960,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-09-16 14:43:00</t>
+          <t>2026-09-16 08:05:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-09-16 20:38:59</t>
+          <t>2026-09-16 10:21:56</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>21359</v>
+        <v>8216</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>05:55:00</t>
+          <t>02:16:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -8950,20 +9000,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-09-17 11:22:00</t>
+          <t>2026-09-17 13:32:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-09-17 13:33:09</t>
+          <t>2026-09-17 15:32:37</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7869</v>
+        <v>7237</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02:11:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8990,20 +9040,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-09-17 08:17:00</t>
+          <t>2026-09-17 12:56:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-09-17 10:50:53</t>
+          <t>2026-09-17 14:36:45</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9233</v>
+        <v>6045</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02:33:00</t>
+          <t>01:40:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -9030,20 +9080,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-09-18 12:55:00</t>
+          <t>2026-09-18 08:38:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-09-18 17:29:49</t>
+          <t>2026-09-18 11:18:43</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16489</v>
+        <v>9643</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>04:34:00</t>
+          <t>02:40:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -9060,38 +9110,78 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>BROWSER_20260918_01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-09-18 13:24:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-09-18 15:00:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5790</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>01:36:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-09-18</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>BROWSER_20260921_00</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2026-09-21 10:53:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2026-09-21 15:51:04</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>17884</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>04:58:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-09-21 15:43:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-09-21 18:55:48</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>11568</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>03:12:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2026-09-21</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
